--- a/advanced/MPMD_Master_Spreadsheet.xlsx
+++ b/advanced/MPMD_Master_Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\octopi\share\MPMD-AutoBedLevel-Cal\advanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\OCTOPI\share\MPMD-AutoBedLevel-Cal\advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52FEBB-86AB-43CC-9601-9C2201700D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D8013-8ADC-4997-A7DD-04F6B6355CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="945" windowWidth="21810" windowHeight="12150" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="289">
   <si>
     <t>Arm #</t>
   </si>
@@ -1238,21 +1238,6 @@
     <t>&lt; 01:02:03 PM: G29 Auto Bed Leveling</t>
   </si>
   <si>
-    <t>L_run</t>
-  </si>
-  <si>
-    <t>R_start</t>
-  </si>
-  <si>
-    <t>R_end</t>
-  </si>
-  <si>
-    <t>L_new</t>
-  </si>
-  <si>
-    <t>Trial #</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -1349,151 +1334,196 @@
     <t>StdDev</t>
   </si>
   <si>
-    <t>echo:  G29 W I0 J0 Z0.13756  ; X-55.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J0 Z0.13445  ; X-37.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J0 Z0.13116  ; X-18.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J0 Z0.12804  ; X0.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J0 Z0.12493  ; X18.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J0 Z0.12164  ; X37.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J0 Z0.11853  ; X55.00 Y-55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I0 J1 Z0.13663  ; X-55.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J1 Z0.13351  ; X-37.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J1 Z0.13022  ; X-18.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J1 Z0.12711  ; X0.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J1 Z0.12399  ; X18.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J1 Z0.12070  ; X37.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J1 Z0.11759  ; X55.00 Y-37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I0 J2 Z0.13564  ; X-55.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J2 Z0.13252  ; X-37.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J2 Z0.12923  ; X-18.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J2 Z0.12612  ; X0.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J2 Z0.12300  ; X18.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J2 Z0.11971  ; X37.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J2 Z0.11660  ; X55.00 Y-18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I0 J3 Z0.13470  ; X-55.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J3 Z0.13158  ; X-37.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J3 Z0.12829  ; X-18.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J3 Z0.12518  ; X0.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J3 Z0.12206  ; X18.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J3 Z0.11877  ; X37.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J3 Z0.11566  ; X55.00 Y0.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I0 J4 Z0.13376  ; X-55.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J4 Z0.13064  ; X-37.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J4 Z0.12736  ; X-18.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J4 Z0.12424  ; X0.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J4 Z0.12112  ; X18.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J4 Z0.11784  ; X37.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J4 Z0.11472  ; X55.00 Y18.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I0 J5 Z0.13277  ; X-55.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J5 Z0.12965  ; X-37.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J5 Z0.12637  ; X-18.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J5 Z0.12325  ; X0.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J5 Z0.12013  ; X18.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J5 Z0.11685  ; X37.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J5 Z0.11373  ; X55.00 Y37.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I0 J6 Z0.13183  ; X-55.00 Y55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I1 J6 Z0.12872  ; X-37.00 Y55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I2 J6 Z0.12543  ; X-18.00 Y55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I3 J6 Z0.12231  ; X0.00 Y55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I4 J6 Z0.11920  ; X18.00 Y55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I5 J6 Z0.11591  ; X37.00 Y55.00</t>
-  </si>
-  <si>
-    <t>echo:  G29 W I6 J6 Z0.11279  ; X55.00 Y55.00</t>
+    <t>G28#  ; MUST home before using G29 code</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Zadj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>When finished, you can copy-paste the gcode column to the right to create a printable file.</t>
+  </si>
+  <si>
+    <t>G29 W I0 J0 Z-2.56312  ; X-55.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J0 Z-2.40396  ; X-37.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J0 Z-2.31313  ; X-18.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J0 Z-2.30019  ; X+00.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J0 Z-2.35838  ; X+18.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J0 Z-2.49698  ; X+37.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J0 Z-2.70139  ; X+55.0 Y-55.0</t>
+  </si>
+  <si>
+    <t>G29 W I0 J1 Z-2.29373  ; X-55.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J1 Z-2.12909  ; X-37.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J1 Z-2.03249  ; X-18.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J1 Z-2.01407  ; X+00.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J1 Z-2.06679  ; X+18.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J1 Z-2.19961  ; X+37.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J1 Z-2.39855  ; X+55.0 Y-37.0</t>
+  </si>
+  <si>
+    <t>G29 W I0 J2 Z-2.13073  ; X-55.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J2 Z-1.96032  ; X-37.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J2 Z-1.85761  ; X-18.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J2 Z-1.83342  ; X+00.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J2 Z-1.88036  ; X+18.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J2 Z-2.00709  ; X+37.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J2 Z-2.20025  ; X+55.0 Y-18.0</t>
+  </si>
+  <si>
+    <t>G29 W I0 J3 Z-2.09128  ; X-55.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J3 Z-1.91540  ; X-37.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J3 Z-1.80691  ; X-18.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J3 Z-1.77725  ; X+00.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J3 Z-1.81872  ; X+18.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J3 Z-1.93967  ; X+37.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J3 Z-2.12736  ; X+55.0 Y+00.0</t>
+  </si>
+  <si>
+    <t>G29 W I0 J4 Z-2.16370  ; X-55.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J4 Z-1.98234  ; X-37.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J4 Z-1.86808  ; X-18.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J4 Z-1.83295  ; X+00.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J4 Z-1.86895  ; X+18.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J4 Z-1.98411  ; X+37.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J4 Z-2.16633  ; X+55.0 Y+18.0</t>
+  </si>
+  <si>
+    <t>G29 W I0 J5 Z-2.36150  ; X-55.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J5 Z-2.17437  ; X-37.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J5 Z-2.05401  ; X-18.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J5 Z-2.01310  ; X+00.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J5 Z-2.04332  ; X+18.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J5 Z-2.15239  ; X+37.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J5 Z-2.32883  ; X+55.0 Y+37.0</t>
+  </si>
+  <si>
+    <t>G29 W I0 J6 Z-2.66387  ; X-55.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>G29 W I1 J6 Z-2.47126  ; X-37.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>G29 W I2 J6 Z-2.34513  ; X-18.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>G29 W I3 J6 Z-2.29874  ; X+00.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>G29 W I4 J6 Z-2.32349  ; X+18.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>G29 W I5 J6 Z-2.42679  ; X+37.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>G29 W I6 J6 Z-2.59776  ; X+55.0 Y+55.0</t>
+  </si>
+  <si>
+    <t>Do not edit the table below. It is for referencing the actual z-values from the printer.</t>
+  </si>
+  <si>
+    <t>Heatmap difference from median.</t>
+  </si>
+  <si>
+    <t>Use the grid below to help manually adjust your bed leveling points up-or-down based on actual test print results.</t>
+  </si>
+  <si>
+    <t>Double check the orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of your buildplate by sending </t>
+  </si>
+  <si>
+    <t>G1 X37 Y-37 Z10</t>
+  </si>
+  <si>
+    <t>and similar commands to compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the nozzle position to the grid on </t>
+  </si>
+  <si>
+    <t>the left.</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1851,6 +1881,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3071,7 +3119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3592,7 +3640,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5178,7 +5238,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5203,10 +5263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1138438-7858-446B-9E9E-EA45D4CBBA7E}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5452,7 +5512,7 @@
       <c r="I16" s="186"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:10">
       <c r="A17" s="7"/>
       <c r="B17" s="186"/>
       <c r="C17" s="186"/>
@@ -5464,7 +5524,7 @@
       <c r="I17" s="186"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:10">
       <c r="A18" s="7"/>
       <c r="B18" s="186"/>
       <c r="C18" s="186"/>
@@ -5476,7 +5536,7 @@
       <c r="I18" s="186"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="186"/>
       <c r="C19" s="186"/>
@@ -5488,7 +5548,7 @@
       <c r="I19" s="186"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="186"/>
       <c r="C20" s="186"/>
@@ -5500,7 +5560,7 @@
       <c r="I20" s="186"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="186"/>
       <c r="C21" s="186"/>
@@ -5512,7 +5572,7 @@
       <c r="I21" s="186"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:10">
       <c r="A22" s="7"/>
       <c r="B22" s="186"/>
       <c r="C22" s="186"/>
@@ -5524,7 +5584,7 @@
       <c r="I22" s="186"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -5536,62 +5596,27 @@
       <c r="I23" s="17"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="J27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M27" t="s">
-        <v>195</v>
-      </c>
-      <c r="N27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>62.393500000000003</v>
-      </c>
-      <c r="L28">
-        <v>120.8</v>
-      </c>
-      <c r="M28">
-        <v>62.4</v>
-      </c>
-      <c r="N28">
-        <f>L28+1.5*(M28-K28)</f>
-        <v>120.80974999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -5626,7 +5651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1841F4-0470-4DFF-8A9E-0E0DB54283FF}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -6479,8 +6504,8 @@
   </sheetPr>
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6516,46 +6541,46 @@
       <c r="A1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="234" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="218"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="219"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="224"/>
+      <c r="AH1" s="224"/>
+      <c r="AI1" s="224"/>
+      <c r="AJ1" s="224"/>
+      <c r="AK1" s="224"/>
+      <c r="AL1" s="224"/>
+      <c r="AM1" s="225"/>
     </row>
     <row r="2" spans="1:39" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="28" t="s">
@@ -6584,15 +6609,15 @@
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="33"/>
-      <c r="K2" s="229" t="s">
+      <c r="K2" s="235" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
       <c r="R2" s="34" t="s">
         <v>105</v>
       </c>
@@ -6602,29 +6627,29 @@
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
       <c r="X2" s="35"/>
-      <c r="Y2" s="230" t="s">
+      <c r="Y2" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="231" t="s">
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="233"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="238"/>
+      <c r="AJ2" s="238"/>
+      <c r="AK2" s="238"/>
+      <c r="AL2" s="238"/>
+      <c r="AM2" s="239"/>
     </row>
     <row r="3" spans="1:39" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B3" s="37">
         <v>-25</v>
@@ -6701,19 +6726,19 @@
         <v>109</v>
       </c>
       <c r="AF3" s="61"/>
-      <c r="AG3" s="234" t="s">
+      <c r="AG3" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="194"/>
-      <c r="AJ3" s="194"/>
-      <c r="AK3" s="194"/>
-      <c r="AL3" s="194"/>
-      <c r="AM3" s="235"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="200"/>
+      <c r="AJ3" s="200"/>
+      <c r="AK3" s="200"/>
+      <c r="AL3" s="200"/>
+      <c r="AM3" s="241"/>
     </row>
     <row r="4" spans="1:39" ht="30.75" customHeight="1" thickTop="1">
       <c r="A4" s="36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -6794,17 +6819,17 @@
         <v>111</v>
       </c>
       <c r="AF4" s="61"/>
-      <c r="AG4" s="236"/>
-      <c r="AH4" s="215"/>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="215"/>
-      <c r="AK4" s="215"/>
-      <c r="AL4" s="215"/>
-      <c r="AM4" s="237"/>
+      <c r="AG4" s="242"/>
+      <c r="AH4" s="221"/>
+      <c r="AI4" s="221"/>
+      <c r="AJ4" s="221"/>
+      <c r="AK4" s="221"/>
+      <c r="AL4" s="221"/>
+      <c r="AM4" s="243"/>
     </row>
     <row r="5" spans="1:39" ht="30.75" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B5" s="37">
         <v>25</v>
@@ -6891,17 +6916,17 @@
         <v>112</v>
       </c>
       <c r="AF5" s="61"/>
-      <c r="AG5" s="236"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="215"/>
-      <c r="AJ5" s="215"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="215"/>
-      <c r="AM5" s="237"/>
+      <c r="AG5" s="242"/>
+      <c r="AH5" s="221"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="221"/>
+      <c r="AK5" s="221"/>
+      <c r="AL5" s="221"/>
+      <c r="AM5" s="243"/>
     </row>
     <row r="6" spans="1:39" ht="30.75" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B6" s="37">
         <v>50</v>
@@ -6998,17 +7023,17 @@
         <v>115</v>
       </c>
       <c r="AF6" s="61"/>
-      <c r="AG6" s="236"/>
-      <c r="AH6" s="215"/>
-      <c r="AI6" s="215"/>
-      <c r="AJ6" s="215"/>
-      <c r="AK6" s="215"/>
-      <c r="AL6" s="215"/>
-      <c r="AM6" s="237"/>
+      <c r="AG6" s="242"/>
+      <c r="AH6" s="221"/>
+      <c r="AI6" s="221"/>
+      <c r="AJ6" s="221"/>
+      <c r="AK6" s="221"/>
+      <c r="AL6" s="221"/>
+      <c r="AM6" s="243"/>
     </row>
     <row r="7" spans="1:39" ht="30.75" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B7" s="37">
         <v>25</v>
@@ -7093,28 +7118,28 @@
       </c>
       <c r="Y7" s="90"/>
       <c r="Z7" s="91"/>
-      <c r="AA7" s="240">
+      <c r="AA7" s="246">
         <f>0+(145-(COUNTIF($L$3:$X$15,"&gt;0.20")+COUNTIF($L$3:$X$15,"&lt;-0.20")))/145</f>
         <v>0.98620689655172411</v>
       </c>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="219"/>
+      <c r="AB7" s="224"/>
+      <c r="AC7" s="224"/>
+      <c r="AD7" s="225"/>
       <c r="AE7" s="60" t="s">
         <v>116</v>
       </c>
       <c r="AF7" s="61"/>
-      <c r="AG7" s="236"/>
-      <c r="AH7" s="215"/>
-      <c r="AI7" s="215"/>
-      <c r="AJ7" s="215"/>
-      <c r="AK7" s="215"/>
-      <c r="AL7" s="215"/>
-      <c r="AM7" s="237"/>
+      <c r="AG7" s="242"/>
+      <c r="AH7" s="221"/>
+      <c r="AI7" s="221"/>
+      <c r="AJ7" s="221"/>
+      <c r="AK7" s="221"/>
+      <c r="AL7" s="221"/>
+      <c r="AM7" s="243"/>
     </row>
     <row r="8" spans="1:39" ht="30.75" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B8" s="37">
         <v>0</v>
@@ -7200,27 +7225,27 @@
       <c r="Y8" s="90"/>
       <c r="Z8" s="93"/>
       <c r="AA8" s="94"/>
-      <c r="AB8" s="241">
+      <c r="AB8" s="247">
         <f>0+(145-(COUNTIF($L$3:$X$15,"&gt;0.15")+COUNTIF($L$3:$X$15,"&lt;-0.15")))/145</f>
         <v>0.95862068965517244</v>
       </c>
-      <c r="AC8" s="194"/>
-      <c r="AD8" s="195"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="201"/>
       <c r="AE8" s="60" t="s">
         <v>117</v>
       </c>
       <c r="AF8" s="61"/>
-      <c r="AG8" s="238"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="200"/>
-      <c r="AJ8" s="200"/>
-      <c r="AK8" s="200"/>
-      <c r="AL8" s="200"/>
-      <c r="AM8" s="239"/>
+      <c r="AG8" s="244"/>
+      <c r="AH8" s="206"/>
+      <c r="AI8" s="206"/>
+      <c r="AJ8" s="206"/>
+      <c r="AK8" s="206"/>
+      <c r="AL8" s="206"/>
+      <c r="AM8" s="245"/>
     </row>
     <row r="9" spans="1:39" ht="30.75" customHeight="1" thickTop="1">
       <c r="A9" s="36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B9" s="37">
         <v>-25</v>
@@ -7309,11 +7334,11 @@
       <c r="Z9" s="95"/>
       <c r="AA9" s="95"/>
       <c r="AB9" s="96"/>
-      <c r="AC9" s="242">
+      <c r="AC9" s="248">
         <f>0+(145-(COUNTIF($L$3:$X$15,"&gt;0.10")+COUNTIF($L$3:$X$15,"&lt;-0.10")))/145</f>
         <v>0.82758620689655171</v>
       </c>
-      <c r="AD9" s="243"/>
+      <c r="AD9" s="249"/>
       <c r="AE9" s="60" t="s">
         <v>119</v>
       </c>
@@ -7321,18 +7346,18 @@
       <c r="AG9" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="AH9" s="244" t="s">
+      <c r="AH9" s="250" t="s">
         <v>121</v>
       </c>
-      <c r="AI9" s="194"/>
-      <c r="AJ9" s="194"/>
-      <c r="AK9" s="194"/>
-      <c r="AL9" s="194"/>
-      <c r="AM9" s="235"/>
+      <c r="AI9" s="200"/>
+      <c r="AJ9" s="200"/>
+      <c r="AK9" s="200"/>
+      <c r="AL9" s="200"/>
+      <c r="AM9" s="241"/>
     </row>
     <row r="10" spans="1:39" ht="30.75" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B10" s="37">
         <v>-50</v>
@@ -7421,11 +7446,11 @@
       <c r="Z10" s="99"/>
       <c r="AA10" s="99"/>
       <c r="AB10" s="100"/>
-      <c r="AC10" s="245">
+      <c r="AC10" s="251">
         <f>0+(145-(COUNTIF($L$3:$X$15,"&gt;0.05")+COUNTIF($L$3:$X$15,"&lt;-0.05")))/145</f>
         <v>0.47586206896551725</v>
       </c>
-      <c r="AD10" s="219"/>
+      <c r="AD10" s="225"/>
       <c r="AE10" s="60" t="s">
         <v>123</v>
       </c>
@@ -7454,7 +7479,7 @@
     </row>
     <row r="11" spans="1:39" ht="30.75" customHeight="1" thickBot="1">
       <c r="A11" s="36" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B11" s="37">
         <v>-50</v>
@@ -7541,11 +7566,11 @@
       <c r="Z11" s="109"/>
       <c r="AA11" s="109"/>
       <c r="AB11" s="110"/>
-      <c r="AC11" s="246">
+      <c r="AC11" s="252">
         <f>AC9</f>
         <v>0.82758620689655171</v>
       </c>
-      <c r="AD11" s="247"/>
+      <c r="AD11" s="253"/>
       <c r="AE11" s="60" t="s">
         <v>126</v>
       </c>
@@ -7570,7 +7595,7 @@
     </row>
     <row r="12" spans="1:39" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B12" s="37">
         <v>-25</v>
@@ -7658,12 +7683,12 @@
       <c r="Y12" s="84"/>
       <c r="Z12" s="117"/>
       <c r="AA12" s="118"/>
-      <c r="AB12" s="248">
+      <c r="AB12" s="254">
         <f>AB8</f>
         <v>0.95862068965517244</v>
       </c>
-      <c r="AC12" s="200"/>
-      <c r="AD12" s="203"/>
+      <c r="AC12" s="206"/>
+      <c r="AD12" s="209"/>
       <c r="AE12" s="60" t="s">
         <v>131</v>
       </c>
@@ -7692,7 +7717,7 @@
     </row>
     <row r="13" spans="1:39" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B13" s="37">
         <v>0</v>
@@ -7775,28 +7800,28 @@
       </c>
       <c r="Y13" s="57"/>
       <c r="Z13" s="128"/>
-      <c r="AA13" s="227">
+      <c r="AA13" s="233">
         <f>AA7</f>
         <v>0.98620689655172411</v>
       </c>
-      <c r="AB13" s="218"/>
-      <c r="AC13" s="218"/>
-      <c r="AD13" s="219"/>
+      <c r="AB13" s="224"/>
+      <c r="AC13" s="224"/>
+      <c r="AD13" s="225"/>
       <c r="AE13" s="60" t="s">
         <v>133</v>
       </c>
       <c r="AF13" s="61"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="215"/>
-      <c r="AI13" s="215"/>
-      <c r="AJ13" s="215"/>
-      <c r="AK13" s="215"/>
-      <c r="AL13" s="215"/>
-      <c r="AM13" s="198"/>
+      <c r="AG13" s="220"/>
+      <c r="AH13" s="221"/>
+      <c r="AI13" s="221"/>
+      <c r="AJ13" s="221"/>
+      <c r="AK13" s="221"/>
+      <c r="AL13" s="221"/>
+      <c r="AM13" s="204"/>
     </row>
     <row r="14" spans="1:39" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B14" s="37">
         <v>25</v>
@@ -7877,19 +7902,19 @@
         <v>134</v>
       </c>
       <c r="AF14" s="61"/>
-      <c r="AG14" s="210" t="s">
+      <c r="AG14" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="AH14" s="211"/>
-      <c r="AI14" s="211"/>
-      <c r="AJ14" s="211"/>
-      <c r="AK14" s="211"/>
-      <c r="AL14" s="211"/>
-      <c r="AM14" s="212"/>
+      <c r="AH14" s="217"/>
+      <c r="AI14" s="217"/>
+      <c r="AJ14" s="217"/>
+      <c r="AK14" s="217"/>
+      <c r="AL14" s="217"/>
+      <c r="AM14" s="218"/>
     </row>
     <row r="15" spans="1:39" ht="30.75" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B15" s="37">
         <v>50</v>
@@ -7970,17 +7995,17 @@
         <v>120</v>
       </c>
       <c r="AH15" s="144"/>
-      <c r="AI15" s="213" t="s">
+      <c r="AI15" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="AJ15" s="208"/>
-      <c r="AK15" s="208"/>
-      <c r="AL15" s="208"/>
-      <c r="AM15" s="209"/>
+      <c r="AJ15" s="214"/>
+      <c r="AK15" s="214"/>
+      <c r="AL15" s="214"/>
+      <c r="AM15" s="215"/>
     </row>
     <row r="16" spans="1:39" ht="30.75" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B16" s="37">
         <v>50</v>
@@ -8068,7 +8093,7 @@
     </row>
     <row r="17" spans="1:39" ht="30.75" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B17" s="37">
         <v>25</v>
@@ -8098,28 +8123,28 @@
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="78"/>
-      <c r="K17" s="214" t="s">
+      <c r="K17" s="220" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="215"/>
-      <c r="O17" s="215"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="215"/>
-      <c r="R17" s="215"/>
-      <c r="S17" s="215"/>
-      <c r="T17" s="215"/>
-      <c r="U17" s="215"/>
-      <c r="V17" s="215"/>
-      <c r="W17" s="215"/>
-      <c r="X17" s="215"/>
-      <c r="Y17" s="216" t="s">
+      <c r="L17" s="221"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="221"/>
+      <c r="O17" s="221"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="222" t="s">
         <v>147</v>
       </c>
-      <c r="Z17" s="215"/>
-      <c r="AA17" s="215"/>
-      <c r="AB17" s="215"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
       <c r="AC17" s="156"/>
       <c r="AD17" s="157"/>
       <c r="AE17" s="60" t="s">
@@ -8150,7 +8175,7 @@
     </row>
     <row r="18" spans="1:39" ht="30.75" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B18" s="37">
         <v>0</v>
@@ -8180,34 +8205,34 @@
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="78"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="215"/>
-      <c r="N18" s="215"/>
-      <c r="O18" s="215"/>
-      <c r="P18" s="215"/>
-      <c r="Q18" s="215"/>
-      <c r="R18" s="215"/>
-      <c r="S18" s="215"/>
-      <c r="T18" s="215"/>
-      <c r="U18" s="215"/>
-      <c r="V18" s="215"/>
-      <c r="W18" s="215"/>
-      <c r="X18" s="215"/>
+      <c r="K18" s="221"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
       <c r="Y18" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="Z18" s="217">
+      <c r="Z18" s="223">
         <f>AVERAGE(L12,L11,M11,M12,M13)</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AA18" s="218"/>
-      <c r="AB18" s="219"/>
-      <c r="AC18" s="220" t="s">
+      <c r="AA18" s="224"/>
+      <c r="AB18" s="225"/>
+      <c r="AC18" s="226" t="s">
         <v>150</v>
       </c>
-      <c r="AD18" s="215"/>
-      <c r="AE18" s="215"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="221"/>
       <c r="AF18" s="84"/>
       <c r="AG18" s="161" t="s">
         <v>127</v>
@@ -8224,14 +8249,14 @@
       <c r="AK18" s="163">
         <v>63.5</v>
       </c>
-      <c r="AL18" s="221" t="s">
+      <c r="AL18" s="227" t="s">
         <v>151</v>
       </c>
-      <c r="AM18" s="222"/>
+      <c r="AM18" s="228"/>
     </row>
     <row r="19" spans="1:39" ht="30.75" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B19" s="37">
         <v>-25</v>
@@ -8261,33 +8286,33 @@
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="78"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="215"/>
-      <c r="R19" s="215"/>
-      <c r="S19" s="215"/>
-      <c r="T19" s="215"/>
-      <c r="U19" s="215"/>
-      <c r="V19" s="215"/>
-      <c r="W19" s="215"/>
-      <c r="X19" s="215"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="221"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
       <c r="Y19" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="Z19" s="217">
+      <c r="Z19" s="223">
         <f>AVERAGE(X12,X11,W11,W12,W13)</f>
         <v>9.2111111111111116E-2</v>
       </c>
-      <c r="AA19" s="218"/>
-      <c r="AB19" s="219"/>
-      <c r="AC19" s="223" t="s">
+      <c r="AA19" s="224"/>
+      <c r="AB19" s="225"/>
+      <c r="AC19" s="229" t="s">
         <v>153</v>
       </c>
-      <c r="AD19" s="219"/>
+      <c r="AD19" s="225"/>
       <c r="AE19" s="164">
         <f>AVERAGE(R9,R8,S8,S9,S10,R10,Q10,Q9,Q8,)</f>
         <v>3.5148148148148144E-2</v>
@@ -8295,17 +8320,17 @@
       <c r="AF19" s="84"/>
       <c r="AG19" s="143"/>
       <c r="AH19" s="144"/>
-      <c r="AI19" s="213" t="s">
+      <c r="AI19" s="219" t="s">
         <v>154</v>
       </c>
-      <c r="AJ19" s="208"/>
-      <c r="AK19" s="208"/>
-      <c r="AL19" s="208"/>
-      <c r="AM19" s="209"/>
+      <c r="AJ19" s="214"/>
+      <c r="AK19" s="214"/>
+      <c r="AL19" s="214"/>
+      <c r="AM19" s="215"/>
     </row>
     <row r="20" spans="1:39" ht="30.75" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B20" s="37">
         <v>-50</v>
@@ -8335,33 +8360,33 @@
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="215"/>
-      <c r="R20" s="215"/>
-      <c r="S20" s="215"/>
-      <c r="T20" s="215"/>
-      <c r="U20" s="215"/>
-      <c r="V20" s="215"/>
-      <c r="W20" s="215"/>
-      <c r="X20" s="215"/>
+      <c r="K20" s="221"/>
+      <c r="L20" s="221"/>
+      <c r="M20" s="221"/>
+      <c r="N20" s="221"/>
+      <c r="O20" s="221"/>
+      <c r="P20" s="221"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="221"/>
+      <c r="S20" s="221"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="221"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="221"/>
       <c r="Y20" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="Z20" s="217">
+      <c r="Z20" s="223">
         <f>AVERAGE(R3,Q3,Q4,R4,S4,S3)</f>
         <v>7.481481481481482E-2</v>
       </c>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="219"/>
-      <c r="AC20" s="223" t="s">
+      <c r="AA20" s="224"/>
+      <c r="AB20" s="225"/>
+      <c r="AC20" s="229" t="s">
         <v>156</v>
       </c>
-      <c r="AD20" s="219"/>
+      <c r="AD20" s="225"/>
       <c r="AE20" s="164">
         <f>MEDIAN(R3,U3,X6,X9,X12,U15,R15,O15,L12,L9,L6,O3,)</f>
         <v>3.5000000000000003E-2</v>
@@ -8391,7 +8416,7 @@
     </row>
     <row r="21" spans="1:39" ht="30.75" customHeight="1" thickBot="1">
       <c r="A21" s="36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B21" s="37">
         <v>-25</v>
@@ -8438,17 +8463,17 @@
       <c r="Y21" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="Z21" s="224">
+      <c r="Z21" s="230">
         <f>IF(AND(SUM(AI16,AK16,AM16)&lt;&gt;1,AH26&lt;&gt;0),"Error",IF(AH26=0,IF(AI23,Z18,IF(AK23,Z19,Z20)),IF(AI16,Z18,IF(AK16,Z19,Z20))))</f>
         <v>9.2111111111111116E-2</v>
       </c>
-      <c r="AA21" s="215"/>
-      <c r="AB21" s="215"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="221"/>
       <c r="AC21" s="168"/>
-      <c r="AD21" s="225" t="s">
+      <c r="AD21" s="231" t="s">
         <v>158</v>
       </c>
-      <c r="AE21" s="215"/>
+      <c r="AE21" s="221"/>
       <c r="AF21" s="84"/>
       <c r="AG21" s="161" t="s">
         <v>127</v>
@@ -8470,7 +8495,7 @@
     </row>
     <row r="22" spans="1:39" ht="30.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B22" s="37">
         <v>0</v>
@@ -8502,43 +8527,43 @@
         <v>105</v>
       </c>
       <c r="J22" s="78"/>
-      <c r="K22" s="226" t="s">
+      <c r="K22" s="232" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="197"/>
-      <c r="S22" s="197"/>
-      <c r="T22" s="197"/>
-      <c r="U22" s="197"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="197"/>
-      <c r="X22" s="197"/>
-      <c r="Y22" s="197"/>
-      <c r="Z22" s="197"/>
-      <c r="AA22" s="197"/>
-      <c r="AB22" s="197"/>
-      <c r="AC22" s="197"/>
-      <c r="AD22" s="197"/>
-      <c r="AE22" s="197"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="203"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="203"/>
+      <c r="S22" s="203"/>
+      <c r="T22" s="203"/>
+      <c r="U22" s="203"/>
+      <c r="V22" s="203"/>
+      <c r="W22" s="203"/>
+      <c r="X22" s="203"/>
+      <c r="Y22" s="203"/>
+      <c r="Z22" s="203"/>
+      <c r="AA22" s="203"/>
+      <c r="AB22" s="203"/>
+      <c r="AC22" s="203"/>
+      <c r="AD22" s="203"/>
+      <c r="AE22" s="203"/>
       <c r="AF22" s="84"/>
       <c r="AG22" s="143"/>
-      <c r="AH22" s="207" t="s">
+      <c r="AH22" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="AI22" s="208"/>
-      <c r="AJ22" s="208"/>
-      <c r="AK22" s="208"/>
-      <c r="AL22" s="208"/>
-      <c r="AM22" s="209"/>
+      <c r="AI22" s="214"/>
+      <c r="AJ22" s="214"/>
+      <c r="AK22" s="214"/>
+      <c r="AL22" s="214"/>
+      <c r="AM22" s="215"/>
     </row>
     <row r="23" spans="1:39" ht="30.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B23" s="37">
         <v>25</v>
@@ -8568,27 +8593,27 @@
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
-      <c r="R23" s="215"/>
-      <c r="S23" s="215"/>
-      <c r="T23" s="215"/>
-      <c r="U23" s="215"/>
-      <c r="V23" s="215"/>
-      <c r="W23" s="215"/>
-      <c r="X23" s="215"/>
-      <c r="Y23" s="215"/>
-      <c r="Z23" s="215"/>
-      <c r="AA23" s="215"/>
-      <c r="AB23" s="215"/>
-      <c r="AC23" s="215"/>
-      <c r="AD23" s="215"/>
-      <c r="AE23" s="197"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="221"/>
+      <c r="N23" s="221"/>
+      <c r="O23" s="221"/>
+      <c r="P23" s="221"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="203"/>
       <c r="AF23" s="84"/>
       <c r="AG23" s="101" t="s">
         <v>145</v>
@@ -8617,38 +8642,38 @@
     </row>
     <row r="24" spans="1:39" ht="30.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="193"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="195"/>
+        <v>211</v>
+      </c>
+      <c r="B24" s="199"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="201"/>
       <c r="I24" s="42"/>
       <c r="J24" s="78"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="215"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="215"/>
-      <c r="R24" s="215"/>
-      <c r="S24" s="215"/>
-      <c r="T24" s="215"/>
-      <c r="U24" s="215"/>
-      <c r="V24" s="215"/>
-      <c r="W24" s="215"/>
-      <c r="X24" s="215"/>
-      <c r="Y24" s="215"/>
-      <c r="Z24" s="215"/>
-      <c r="AA24" s="215"/>
-      <c r="AB24" s="215"/>
-      <c r="AC24" s="215"/>
-      <c r="AD24" s="215"/>
-      <c r="AE24" s="197"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="221"/>
+      <c r="M24" s="221"/>
+      <c r="N24" s="221"/>
+      <c r="O24" s="221"/>
+      <c r="P24" s="221"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="203"/>
       <c r="AF24" s="84"/>
       <c r="AG24" s="101" t="s">
         <v>124</v>
@@ -8677,38 +8702,38 @@
     </row>
     <row r="25" spans="1:39" ht="30.75" customHeight="1" thickBot="1">
       <c r="A25" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="198"/>
+        <v>212</v>
+      </c>
+      <c r="B25" s="202"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="204"/>
       <c r="I25" s="42"/>
       <c r="J25" s="78"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="215"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="215"/>
-      <c r="R25" s="215"/>
-      <c r="S25" s="215"/>
-      <c r="T25" s="215"/>
-      <c r="U25" s="215"/>
-      <c r="V25" s="215"/>
-      <c r="W25" s="215"/>
-      <c r="X25" s="215"/>
-      <c r="Y25" s="215"/>
-      <c r="Z25" s="215"/>
-      <c r="AA25" s="215"/>
-      <c r="AB25" s="215"/>
-      <c r="AC25" s="215"/>
-      <c r="AD25" s="215"/>
-      <c r="AE25" s="197"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="221"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="203"/>
       <c r="AF25" s="84"/>
       <c r="AG25" s="161" t="s">
         <v>127</v>
@@ -8732,59 +8757,59 @@
     </row>
     <row r="26" spans="1:39" ht="30.75" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="199" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="201"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="207"/>
       <c r="F26" s="176">
         <f>MEDIAN(F3:F23)</f>
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="G26" s="202"/>
-      <c r="H26" s="203"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="209"/>
       <c r="I26" s="177"/>
       <c r="J26" s="178"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="200"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
-      <c r="Z26" s="200"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200"/>
-      <c r="AC26" s="200"/>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="200"/>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="206"/>
+      <c r="N26" s="206"/>
+      <c r="O26" s="206"/>
+      <c r="P26" s="206"/>
+      <c r="Q26" s="206"/>
+      <c r="R26" s="206"/>
+      <c r="S26" s="206"/>
+      <c r="T26" s="206"/>
+      <c r="U26" s="206"/>
+      <c r="V26" s="206"/>
+      <c r="W26" s="206"/>
+      <c r="X26" s="206"/>
+      <c r="Y26" s="206"/>
+      <c r="Z26" s="206"/>
+      <c r="AA26" s="206"/>
+      <c r="AB26" s="206"/>
+      <c r="AC26" s="206"/>
+      <c r="AD26" s="206"/>
+      <c r="AE26" s="206"/>
       <c r="AF26" s="179"/>
       <c r="AG26" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="AH26" s="204">
+      <c r="AH26" s="210">
         <v>0</v>
       </c>
-      <c r="AI26" s="205"/>
-      <c r="AJ26" s="205"/>
-      <c r="AK26" s="205"/>
-      <c r="AL26" s="205"/>
-      <c r="AM26" s="206"/>
+      <c r="AI26" s="211"/>
+      <c r="AJ26" s="211"/>
+      <c r="AK26" s="211"/>
+      <c r="AL26" s="211"/>
+      <c r="AM26" s="212"/>
     </row>
     <row r="27" spans="1:39" thickTop="1">
       <c r="A27" s="36" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D27" s="181"/>
       <c r="E27" s="181"/>
@@ -8793,7 +8818,7 @@
     </row>
     <row r="28" spans="1:39" ht="14.25">
       <c r="A28" s="36" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D28" s="181"/>
       <c r="E28" s="181"/>
@@ -8802,7 +8827,7 @@
     </row>
     <row r="29" spans="1:39" ht="14.25">
       <c r="A29" s="36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D29" s="181"/>
       <c r="E29" s="181"/>
@@ -8811,7 +8836,7 @@
     </row>
     <row r="30" spans="1:39" ht="14.25">
       <c r="A30" s="36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D30" s="181"/>
       <c r="E30" s="181"/>
@@ -8820,7 +8845,7 @@
     </row>
     <row r="31" spans="1:39" ht="14.25">
       <c r="A31" s="36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D31" s="181"/>
       <c r="E31" s="181"/>
@@ -8829,7 +8854,7 @@
     </row>
     <row r="32" spans="1:39" ht="14.25">
       <c r="A32" s="36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D32" s="181"/>
       <c r="E32" s="181"/>
@@ -8838,7 +8863,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25">
       <c r="A33" s="36" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D33" s="181"/>
       <c r="E33" s="181"/>
@@ -8847,7 +8872,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="36" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D34" s="181"/>
       <c r="E34" s="181"/>
@@ -8856,7 +8881,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25">
       <c r="A35" s="36" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D35" s="181"/>
       <c r="E35" s="181"/>
@@ -8865,7 +8890,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25">
       <c r="A36" s="36" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D36" s="181"/>
       <c r="E36" s="181"/>
@@ -8874,7 +8899,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25">
       <c r="A37" s="36" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D37" s="181"/>
       <c r="E37" s="181"/>
@@ -8883,7 +8908,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25">
       <c r="A38" s="36" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D38" s="181"/>
       <c r="E38" s="181"/>
@@ -8892,7 +8917,7 @@
     </row>
     <row r="39" spans="1:10" ht="14.25">
       <c r="A39" s="36" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D39" s="181"/>
       <c r="E39" s="181"/>
@@ -8901,7 +8926,7 @@
     </row>
     <row r="40" spans="1:10" ht="14.25">
       <c r="A40" s="36" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D40" s="181"/>
       <c r="E40" s="181"/>
@@ -8910,7 +8935,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.25">
       <c r="A41" s="36" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D41" s="181"/>
       <c r="E41" s="181"/>
@@ -8919,7 +8944,7 @@
     </row>
     <row r="42" spans="1:10" ht="14.25">
       <c r="A42" s="36" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D42" s="181"/>
       <c r="E42" s="181"/>
@@ -8928,7 +8953,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25">
       <c r="A43" s="36" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D43" s="181"/>
       <c r="E43" s="181"/>
@@ -8937,7 +8962,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25">
       <c r="A44" s="36" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D44" s="181"/>
       <c r="E44" s="181"/>
@@ -15869,1393 +15894,2648 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1C94F7-071E-4499-9025-EEA70EE4FDD6}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="188" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="188" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="188" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="188" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="5.7109375" style="188" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="188" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="188"/>
+    <col min="2" max="2" width="2" style="188" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="188" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.7109375" style="188" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="188" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="188" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="188" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="188" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="188" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="188" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="5.7109375" style="188" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="188" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" style="188"/>
+    <col min="26" max="26" width="38.7109375" style="188" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="188"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A1" s="192" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="192" t="s">
+    <row r="1" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A1" s="197" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="197" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="197" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="E1" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="192" t="s">
+      <c r="F1" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="G1" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="192" t="s">
+      <c r="H1" s="197" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="192" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="192" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30.75" customHeight="1">
+      <c r="J1" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="197" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="30.75" customHeight="1">
       <c r="A2" s="188" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="188">
-        <f t="shared" ref="B2:B33" si="0">VALUE(RIGHT(LEFT(A2,FIND("Y",A2)-1),FIND("Y",A2)-FIND("X",A2)-1))</f>
+        <v>231</v>
+      </c>
+      <c r="B2" s="195">
+        <v>0</v>
+      </c>
+      <c r="C2" s="195">
+        <v>0</v>
+      </c>
+      <c r="D2" s="195">
+        <f t="shared" ref="D2:D33" si="0">VALUE(RIGHT(LEFT(A2,FIND("Y",A2)-1),FIND("Y",A2)-FIND("X",A2)-1))</f>
         <v>-55</v>
       </c>
-      <c r="C2" s="188">
-        <f t="shared" ref="C2:C33" si="1">VALUE(RIGHT(A2,LEN(A2)-FIND("Y",A2)))</f>
+      <c r="E2" s="195">
+        <f t="shared" ref="E2:E33" si="1">VALUE(RIGHT(A2,LEN(A2)-FIND("Y",A2)))</f>
         <v>-55</v>
       </c>
-      <c r="D2" s="188">
-        <f t="shared" ref="D2:D33" si="2">VALUE(RIGHT(LEFT(A2,FIND("X",A2)-3),FIND("X",A2)-FIND("Z",A2)-3))</f>
-        <v>0.13755999999999999</v>
-      </c>
-      <c r="E2" s="188">
-        <f t="shared" ref="E2:E33" si="3">D2-$F$2</f>
-        <v>1.2379999999999974E-2</v>
-      </c>
-      <c r="F2" s="188">
-        <f>MEDIAN(D:D)</f>
-        <v>0.12518000000000001</v>
-      </c>
-      <c r="G2" s="188">
-        <f>AVERAGE(D:D)</f>
-        <v>0.1251783673469388</v>
-      </c>
-      <c r="H2" s="188">
-        <f>STDEV(D:D)</f>
-        <v>6.7051943008569759E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30.75" customHeight="1">
+      <c r="F2" s="195">
+        <f t="shared" ref="F2:F33" si="2">VALUE(RIGHT(LEFT(A2,FIND("X",A2)-3),FIND("X",A2)-FIND("Z",A2)-3))</f>
+        <v>-2.5631200000000001</v>
+      </c>
+      <c r="G2" s="195">
+        <f t="shared" ref="G2:G33" si="3">F2-$I$2</f>
+        <v>-0.43239000000000027</v>
+      </c>
+      <c r="H2" s="196">
+        <f>N20</f>
+        <v>0.41836999999999991</v>
+      </c>
+      <c r="I2" s="195">
+        <f>MEDIAN(F:F)</f>
+        <v>-2.1307299999999998</v>
+      </c>
+      <c r="J2" s="195">
+        <f>AVERAGE(F:F)</f>
+        <v>-2.1579361224489793</v>
+      </c>
+      <c r="K2" s="195">
+        <f>STDEV(F:F)</f>
+        <v>0.24270109916672505</v>
+      </c>
+      <c r="N2" s="188" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y2" s="188" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z2" s="19" t="str">
+        <f>"G29 W I"&amp;B2&amp;" J"&amp;C2&amp;" Z"&amp;ROUND(F2+H2,5)&amp;"  ; X"&amp;D2&amp;" Y"&amp;E2</f>
+        <v>G29 W I0 J0 Z-2.14475  ; X-55 Y-55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="30.75" customHeight="1">
       <c r="A3" s="188" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="188">
+        <v>232</v>
+      </c>
+      <c r="B3" s="195">
+        <v>1</v>
+      </c>
+      <c r="C3" s="195">
+        <v>0</v>
+      </c>
+      <c r="D3" s="195">
         <f t="shared" si="0"/>
         <v>-37</v>
       </c>
-      <c r="C3" s="188">
+      <c r="E3" s="195">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="D3" s="188">
+      <c r="F3" s="195">
         <f t="shared" si="2"/>
-        <v>0.13444999999999999</v>
-      </c>
-      <c r="E3" s="188">
+        <v>-2.4039600000000001</v>
+      </c>
+      <c r="G3" s="195">
         <f t="shared" si="3"/>
-        <v>9.2699999999999727E-3</v>
-      </c>
-      <c r="I3" s="190"/>
-      <c r="J3" s="189">
-        <f>C44</f>
+        <v>-0.27323000000000031</v>
+      </c>
+      <c r="H3" s="196">
+        <f>O20</f>
+        <v>0.24624500000000005</v>
+      </c>
+      <c r="L3" s="190"/>
+      <c r="M3" s="189">
+        <f>E44</f>
         <v>55</v>
       </c>
-      <c r="K3" s="191">
-        <f>E44</f>
-        <v>6.6499999999999893E-3</v>
-      </c>
-      <c r="L3" s="191">
-        <f>E45</f>
-        <v>3.5399999999999876E-3</v>
-      </c>
-      <c r="M3" s="191">
-        <f>E46</f>
-        <v>2.5000000000000022E-4</v>
-      </c>
-      <c r="N3" s="191">
-        <f>E47</f>
-        <v>-2.8700000000000114E-3</v>
-      </c>
-      <c r="O3" s="191">
-        <f>E48</f>
-        <v>-5.9800000000000131E-3</v>
-      </c>
-      <c r="P3" s="191">
-        <f>E49</f>
-        <v>-9.2700000000000143E-3</v>
+      <c r="N3" s="193">
+        <f>G44</f>
+        <v>-0.53314000000000039</v>
+      </c>
+      <c r="O3" s="193">
+        <f>G45</f>
+        <v>-0.34053000000000022</v>
+      </c>
+      <c r="P3" s="193">
+        <f>G46</f>
+        <v>-0.21440000000000037</v>
       </c>
       <c r="Q3" s="191">
-        <f>E50</f>
-        <v>-1.2390000000000012E-2</v>
-      </c>
-      <c r="S3" s="188" t="s">
+        <f>G47</f>
+        <v>-0.16801000000000021</v>
+      </c>
+      <c r="R3" s="193">
+        <f>G48</f>
+        <v>-0.19276000000000026</v>
+      </c>
+      <c r="S3" s="193">
+        <f>G49</f>
+        <v>-0.29606000000000021</v>
+      </c>
+      <c r="T3" s="193">
+        <f>G50</f>
+        <v>-0.46703000000000028</v>
+      </c>
+      <c r="V3" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="188">
-        <f>F2</f>
-        <v>0.12518000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30.75" customHeight="1">
+      <c r="W3" s="195">
+        <f>I2</f>
+        <v>-2.1307299999999998</v>
+      </c>
+      <c r="Z3" s="19" t="str">
+        <f t="shared" ref="Z3:Z13" si="4">"G29 W I"&amp;B3&amp;" J"&amp;C3&amp;" Z"&amp;ROUND(F3+H3,5)&amp;"  ; X"&amp;D3&amp;" Y"&amp;E3</f>
+        <v>G29 W I1 J0 Z-2.15772  ; X-37 Y-55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30.75" customHeight="1">
       <c r="A4" s="188" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="188">
+        <v>233</v>
+      </c>
+      <c r="B4" s="195">
+        <v>2</v>
+      </c>
+      <c r="C4" s="195">
+        <v>0</v>
+      </c>
+      <c r="D4" s="195">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="C4" s="188">
+      <c r="E4" s="195">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="D4" s="188">
+      <c r="F4" s="195">
         <f t="shared" si="2"/>
-        <v>0.13116</v>
-      </c>
-      <c r="E4" s="188">
+        <v>-2.3131300000000001</v>
+      </c>
+      <c r="G4" s="195">
         <f t="shared" si="3"/>
-        <v>5.9799999999999853E-3</v>
-      </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="189">
-        <f>C37</f>
+        <v>-0.18240000000000034</v>
+      </c>
+      <c r="H4" s="196">
+        <f>P20</f>
+        <v>0.1467900000000002</v>
+      </c>
+      <c r="L4" s="190"/>
+      <c r="M4" s="189">
+        <f>E37</f>
         <v>37</v>
       </c>
-      <c r="K4" s="191">
-        <f>E37</f>
-        <v>7.5899999999999856E-3</v>
-      </c>
-      <c r="L4" s="191">
-        <f>E38</f>
-        <v>4.469999999999974E-3</v>
-      </c>
-      <c r="M4" s="191">
-        <f>E39</f>
-        <v>1.1899999999999966E-3</v>
-      </c>
-      <c r="N4" s="191">
-        <f>E40</f>
-        <v>-1.930000000000015E-3</v>
+      <c r="N4" s="193">
+        <f>G37</f>
+        <v>-0.23077000000000014</v>
       </c>
       <c r="O4" s="191">
-        <f>E41</f>
-        <v>-5.0500000000000128E-3</v>
+        <f>G38</f>
+        <v>-4.3640000000000345E-2</v>
       </c>
       <c r="P4" s="191">
-        <f>E42</f>
-        <v>-8.3300000000000179E-3</v>
+        <f>G39</f>
+        <v>7.6719999999999899E-2</v>
       </c>
       <c r="Q4" s="191">
-        <f>E43</f>
-        <v>-1.1450000000000016E-2</v>
-      </c>
-      <c r="S4" s="188" t="s">
-        <v>198</v>
-      </c>
-      <c r="T4" s="188">
-        <f>G2</f>
-        <v>0.1251783673469388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30.75" customHeight="1">
+        <f>G40</f>
+        <v>0.11762999999999968</v>
+      </c>
+      <c r="R4" s="191">
+        <f>G41</f>
+        <v>8.7409999999999766E-2</v>
+      </c>
+      <c r="S4" s="191">
+        <f>G42</f>
+        <v>-2.1660000000000235E-2</v>
+      </c>
+      <c r="T4" s="193">
+        <f>G43</f>
+        <v>-0.19810000000000016</v>
+      </c>
+      <c r="V4" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="W4" s="195">
+        <f>J2</f>
+        <v>-2.1579361224489793</v>
+      </c>
+      <c r="Z4" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I2 J0 Z-2.16634  ; X-18 Y-55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="30.75" customHeight="1">
       <c r="A5" s="188" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="188">
+        <v>234</v>
+      </c>
+      <c r="B5" s="195">
+        <v>3</v>
+      </c>
+      <c r="C5" s="195">
+        <v>0</v>
+      </c>
+      <c r="D5" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="188">
+      <c r="E5" s="195">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="D5" s="188">
+      <c r="F5" s="195">
         <f t="shared" si="2"/>
-        <v>0.12803999999999999</v>
-      </c>
-      <c r="E5" s="188">
+        <v>-2.3001900000000002</v>
+      </c>
+      <c r="G5" s="195">
         <f t="shared" si="3"/>
-        <v>2.8599999999999737E-3</v>
-      </c>
-      <c r="I5" s="190"/>
-      <c r="J5" s="189">
-        <f>C30</f>
+        <v>-0.16946000000000039</v>
+      </c>
+      <c r="H5" s="196">
+        <f>Q20</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="190"/>
+      <c r="M5" s="189">
+        <f>E30</f>
         <v>18</v>
       </c>
-      <c r="K5" s="191">
-        <f>E30</f>
-        <v>8.5799999999999765E-3</v>
-      </c>
-      <c r="L5" s="191">
-        <f>E31</f>
-        <v>5.4599999999999926E-3</v>
-      </c>
-      <c r="M5" s="191">
-        <f>E32</f>
-        <v>2.1799999999999875E-3</v>
-      </c>
-      <c r="N5" s="191">
-        <f>E33</f>
-        <v>-9.4000000000001027E-4</v>
+      <c r="N5" s="193">
+        <f>G30</f>
+        <v>-3.2970000000000166E-2</v>
       </c>
       <c r="O5" s="191">
-        <f>E34</f>
-        <v>-4.060000000000008E-3</v>
+        <f>G31</f>
+        <v>0.1483899999999998</v>
       </c>
       <c r="P5" s="191">
-        <f>E35</f>
-        <v>-7.3400000000000132E-3</v>
+        <f>G32</f>
+        <v>0.26264999999999983</v>
       </c>
       <c r="Q5" s="191">
-        <f>E36</f>
-        <v>-1.0460000000000011E-2</v>
-      </c>
-      <c r="S5" s="188" t="s">
-        <v>229</v>
-      </c>
-      <c r="T5" s="188">
-        <f>H2</f>
-        <v>6.7051943008569759E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30.75" customHeight="1">
+        <f>G33</f>
+        <v>0.29777999999999971</v>
+      </c>
+      <c r="R5" s="191">
+        <f>G34</f>
+        <v>0.2617799999999999</v>
+      </c>
+      <c r="S5" s="191">
+        <f>G35</f>
+        <v>0.14661999999999975</v>
+      </c>
+      <c r="T5" s="193">
+        <f>G36</f>
+        <v>-3.5600000000000076E-2</v>
+      </c>
+      <c r="V5" s="198" t="s">
+        <v>224</v>
+      </c>
+      <c r="W5" s="195">
+        <f>K2</f>
+        <v>0.24270109916672505</v>
+      </c>
+      <c r="Z5" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I3 J0 Z-2.30019  ; X0 Y-55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="30.75" customHeight="1">
       <c r="A6" s="188" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="188">
+        <v>235</v>
+      </c>
+      <c r="B6" s="195">
+        <v>4</v>
+      </c>
+      <c r="C6" s="195">
+        <v>0</v>
+      </c>
+      <c r="D6" s="195">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C6" s="188">
+      <c r="E6" s="195">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="D6" s="188">
+      <c r="F6" s="195">
         <f t="shared" si="2"/>
-        <v>0.12493</v>
-      </c>
-      <c r="E6" s="188">
+        <v>-2.3583799999999999</v>
+      </c>
+      <c r="G6" s="195">
         <f t="shared" si="3"/>
-        <v>-2.500000000000141E-4</v>
-      </c>
-      <c r="I6" s="189" t="s">
+        <v>-0.22765000000000013</v>
+      </c>
+      <c r="H6" s="196">
+        <f>R20</f>
+        <v>0.17488999999999999</v>
+      </c>
+      <c r="L6" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="189">
-        <f>C23</f>
+      <c r="M6" s="189">
+        <f>E23</f>
         <v>0</v>
       </c>
-      <c r="K6" s="191">
-        <f>E23</f>
-        <v>9.5199999999999729E-3</v>
-      </c>
-      <c r="L6" s="191">
-        <f>E24</f>
-        <v>6.399999999999989E-3</v>
-      </c>
-      <c r="M6" s="191">
-        <f>E25</f>
-        <v>3.1099999999999739E-3</v>
-      </c>
       <c r="N6" s="191">
-        <f>E26</f>
+        <f>G23</f>
+        <v>3.9449999999999985E-2</v>
+      </c>
+      <c r="O6" s="191">
+        <f>G24</f>
+        <v>0.2153299999999998</v>
+      </c>
+      <c r="P6" s="191">
+        <f>G25</f>
+        <v>0.32381999999999977</v>
+      </c>
+      <c r="Q6" s="191">
+        <f>G26</f>
+        <v>0.35347999999999979</v>
+      </c>
+      <c r="R6" s="191">
+        <f>G27</f>
+        <v>0.3120099999999999</v>
+      </c>
+      <c r="S6" s="191">
+        <f>G28</f>
+        <v>0.19105999999999979</v>
+      </c>
+      <c r="T6" s="191">
+        <f>G29</f>
+        <v>3.3699999999998731E-3</v>
+      </c>
+      <c r="Z6" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I4 J0 Z-2.18349  ; X18 Y-55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A7" s="188" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="195">
+        <v>5</v>
+      </c>
+      <c r="C7" s="195">
         <v>0</v>
       </c>
-      <c r="O6" s="191">
-        <f>E27</f>
-        <v>-3.1200000000000117E-3</v>
-      </c>
-      <c r="P6" s="191">
-        <f>E28</f>
-        <v>-6.4100000000000129E-3</v>
-      </c>
-      <c r="Q6" s="191">
-        <f>E29</f>
-        <v>-9.5200000000000146E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A7" s="188" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="188">
+      <c r="D7" s="195">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C7" s="188">
+      <c r="E7" s="195">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="D7" s="188">
+      <c r="F7" s="195">
         <f t="shared" si="2"/>
-        <v>0.12164</v>
-      </c>
-      <c r="E7" s="188">
+        <v>-2.4969800000000002</v>
+      </c>
+      <c r="G7" s="195">
         <f t="shared" si="3"/>
-        <v>-3.5400000000000154E-3</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="189">
-        <f>C16</f>
+        <v>-0.36625000000000041</v>
+      </c>
+      <c r="H7" s="196">
+        <f>S20</f>
+        <v>0.31543000000000054</v>
+      </c>
+      <c r="L7" s="190"/>
+      <c r="M7" s="189">
+        <f>E16</f>
         <v>-18</v>
       </c>
-      <c r="K7" s="191">
-        <f>E16</f>
-        <v>1.0459999999999997E-2</v>
-      </c>
-      <c r="L7" s="191">
-        <f>E17</f>
-        <v>7.3399999999999854E-3</v>
-      </c>
-      <c r="M7" s="191">
-        <f>E18</f>
-        <v>4.049999999999998E-3</v>
-      </c>
-      <c r="N7" s="191">
-        <f>E19</f>
-        <v>9.3999999999999639E-4</v>
+      <c r="N7" s="193">
+        <f>G16</f>
+        <v>0</v>
       </c>
       <c r="O7" s="191">
-        <f>E20</f>
-        <v>-2.1800000000000153E-3</v>
+        <f>G17</f>
+        <v>0.17040999999999973</v>
       </c>
       <c r="P7" s="191">
-        <f>E21</f>
-        <v>-5.4700000000000165E-3</v>
+        <f>G18</f>
+        <v>0.27311999999999981</v>
       </c>
       <c r="Q7" s="191">
-        <f>E22</f>
-        <v>-8.5800000000000182E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30.75" customHeight="1">
+        <f>G19</f>
+        <v>0.29730999999999974</v>
+      </c>
+      <c r="R7" s="191">
+        <f>G20</f>
+        <v>0.25036999999999976</v>
+      </c>
+      <c r="S7" s="191">
+        <f>G21</f>
+        <v>0.12363999999999997</v>
+      </c>
+      <c r="T7" s="193">
+        <f>G22</f>
+        <v>-6.9520000000000248E-2</v>
+      </c>
+      <c r="Z7" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I5 J0 Z-2.18155  ; X37 Y-55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="30.75" customHeight="1">
       <c r="A8" s="188" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="188">
+        <v>237</v>
+      </c>
+      <c r="B8" s="195">
+        <v>6</v>
+      </c>
+      <c r="C8" s="195">
+        <v>0</v>
+      </c>
+      <c r="D8" s="195">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C8" s="188">
+      <c r="E8" s="195">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="D8" s="188">
+      <c r="F8" s="195">
         <f t="shared" si="2"/>
-        <v>0.11853</v>
-      </c>
-      <c r="E8" s="188">
+        <v>-2.70139</v>
+      </c>
+      <c r="G8" s="195">
         <f t="shared" si="3"/>
-        <v>-6.650000000000017E-3</v>
-      </c>
-      <c r="I8" s="190"/>
-      <c r="J8" s="189">
-        <f>C9</f>
+        <v>-0.57066000000000017</v>
+      </c>
+      <c r="H8" s="196">
+        <f>T20</f>
+        <v>0.54819750000000012</v>
+      </c>
+      <c r="L8" s="190"/>
+      <c r="M8" s="189">
+        <f>E9</f>
         <v>-37</v>
       </c>
-      <c r="K8" s="191">
-        <f>E9</f>
-        <v>1.1449999999999988E-2</v>
-      </c>
-      <c r="L8" s="191">
-        <f>E10</f>
-        <v>8.3299999999999763E-3</v>
-      </c>
-      <c r="M8" s="191">
-        <f>E11</f>
-        <v>5.0399999999999889E-3</v>
-      </c>
-      <c r="N8" s="191">
-        <f>E12</f>
-        <v>1.9299999999999873E-3</v>
+      <c r="N8" s="193">
+        <f>G9</f>
+        <v>-0.16300000000000026</v>
       </c>
       <c r="O8" s="191">
-        <f>E13</f>
-        <v>-1.1900000000000105E-3</v>
+        <f>G10</f>
+        <v>1.6399999999996417E-3</v>
       </c>
       <c r="P8" s="191">
-        <f>E14</f>
-        <v>-4.4800000000000118E-3</v>
+        <f>G11</f>
+        <v>9.8239999999999661E-2</v>
       </c>
       <c r="Q8" s="191">
-        <f>E15</f>
-        <v>-7.5900000000000134E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30.75" customHeight="1">
+        <f>G12</f>
+        <v>0.11665999999999999</v>
+      </c>
+      <c r="R8" s="191">
+        <f>G13</f>
+        <v>6.3939999999999664E-2</v>
+      </c>
+      <c r="S8" s="191">
+        <f>G14</f>
+        <v>-6.8880000000000052E-2</v>
+      </c>
+      <c r="T8" s="193">
+        <f>G15</f>
+        <v>-0.26782000000000039</v>
+      </c>
+      <c r="Z8" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I6 J0 Z-2.15319  ; X55 Y-55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30.75" customHeight="1">
       <c r="A9" s="188" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="188">
+        <v>238</v>
+      </c>
+      <c r="B9" s="195">
+        <v>0</v>
+      </c>
+      <c r="C9" s="195">
+        <v>1</v>
+      </c>
+      <c r="D9" s="195">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
-      <c r="C9" s="188">
+      <c r="E9" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D9" s="188">
+      <c r="F9" s="195">
         <f t="shared" si="2"/>
-        <v>0.13663</v>
-      </c>
-      <c r="E9" s="188">
+        <v>-2.29373</v>
+      </c>
+      <c r="G9" s="195">
         <f t="shared" si="3"/>
-        <v>1.1449999999999988E-2</v>
-      </c>
-      <c r="I9" s="190"/>
-      <c r="J9" s="189">
-        <f>C2</f>
+        <v>-0.16300000000000026</v>
+      </c>
+      <c r="H9" s="196">
+        <f>N19</f>
+        <v>0.18628499999999981</v>
+      </c>
+      <c r="L9" s="190"/>
+      <c r="M9" s="189">
+        <f>E2</f>
         <v>-55</v>
       </c>
-      <c r="K9" s="191">
-        <f>E2</f>
-        <v>1.2379999999999974E-2</v>
-      </c>
-      <c r="L9" s="191">
-        <f>E3</f>
-        <v>9.2699999999999727E-3</v>
-      </c>
-      <c r="M9" s="191">
-        <f>E4</f>
-        <v>5.9799999999999853E-3</v>
-      </c>
-      <c r="N9" s="191">
-        <f>E5</f>
-        <v>2.8599999999999737E-3</v>
-      </c>
-      <c r="O9" s="191">
-        <f>E6</f>
-        <v>-2.500000000000141E-4</v>
-      </c>
-      <c r="P9" s="191">
-        <f>E7</f>
-        <v>-3.5400000000000154E-3</v>
+      <c r="N9" s="193">
+        <f>G2</f>
+        <v>-0.43239000000000027</v>
+      </c>
+      <c r="O9" s="193">
+        <f>G3</f>
+        <v>-0.27323000000000031</v>
+      </c>
+      <c r="P9" s="193">
+        <f>G4</f>
+        <v>-0.18240000000000034</v>
       </c>
       <c r="Q9" s="191">
-        <f>E8</f>
-        <v>-6.650000000000017E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30.75" customHeight="1">
+        <f>G5</f>
+        <v>-0.16946000000000039</v>
+      </c>
+      <c r="R9" s="193">
+        <f>G6</f>
+        <v>-0.22765000000000013</v>
+      </c>
+      <c r="S9" s="193">
+        <f>G7</f>
+        <v>-0.36625000000000041</v>
+      </c>
+      <c r="T9" s="193">
+        <f>G8</f>
+        <v>-0.57066000000000017</v>
+      </c>
+      <c r="Z9" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I0 J1 Z-2.10745  ; X-55 Y-37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="30.75" customHeight="1">
       <c r="A10" s="188" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="188">
+        <v>239</v>
+      </c>
+      <c r="B10" s="195">
+        <v>1</v>
+      </c>
+      <c r="C10" s="195">
+        <v>1</v>
+      </c>
+      <c r="D10" s="195">
         <f t="shared" si="0"/>
         <v>-37</v>
       </c>
-      <c r="C10" s="188">
+      <c r="E10" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D10" s="188">
+      <c r="F10" s="195">
         <f t="shared" si="2"/>
-        <v>0.13350999999999999</v>
-      </c>
-      <c r="E10" s="188">
+        <v>-2.1290900000000001</v>
+      </c>
+      <c r="G10" s="195">
         <f t="shared" si="3"/>
-        <v>8.3299999999999763E-3</v>
-      </c>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="189">
-        <f>B9</f>
+        <v>1.6399999999996417E-3</v>
+      </c>
+      <c r="H10" s="196">
+        <f>O19</f>
+        <v>-0.02</v>
+      </c>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="189">
+        <f>D9</f>
         <v>-55</v>
       </c>
-      <c r="L10" s="189">
-        <f>B3</f>
+      <c r="O10" s="189">
+        <f>D3</f>
         <v>-37</v>
       </c>
-      <c r="M10" s="189">
-        <f>B4</f>
+      <c r="P10" s="189">
+        <f>D4</f>
         <v>-18</v>
       </c>
-      <c r="N10" s="189">
-        <f>B12</f>
+      <c r="Q10" s="189">
+        <f>D12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="189">
-        <f>B41</f>
+      <c r="R10" s="189">
+        <f>D41</f>
         <v>18</v>
       </c>
-      <c r="P10" s="189">
-        <f>B42</f>
+      <c r="S10" s="189">
+        <f>D42</f>
         <v>37</v>
       </c>
-      <c r="Q10" s="189">
-        <f>B43</f>
+      <c r="T10" s="189">
+        <f>D43</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="30.75" customHeight="1">
+      <c r="Z10" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I1 J1 Z-2.14909  ; X-37 Y-37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="30.75" customHeight="1">
       <c r="A11" s="188" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="188">
+        <v>240</v>
+      </c>
+      <c r="B11" s="195">
+        <v>2</v>
+      </c>
+      <c r="C11" s="195">
+        <v>1</v>
+      </c>
+      <c r="D11" s="195">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="C11" s="188">
+      <c r="E11" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D11" s="188">
+      <c r="F11" s="195">
         <f t="shared" si="2"/>
-        <v>0.13022</v>
-      </c>
-      <c r="E11" s="188">
+        <v>-2.0324900000000001</v>
+      </c>
+      <c r="G11" s="195">
         <f t="shared" si="3"/>
-        <v>5.0399999999999889E-3</v>
-      </c>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
+        <v>9.8239999999999661E-2</v>
+      </c>
+      <c r="H11" s="196">
+        <f>P19</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="190"/>
       <c r="M11" s="190"/>
-      <c r="N11" s="189" t="s">
-        <v>97</v>
-      </c>
+      <c r="N11" s="190"/>
       <c r="O11" s="190"/>
       <c r="P11" s="190"/>
-      <c r="Q11" s="190"/>
-    </row>
-    <row r="12" spans="1:20" ht="30.75" customHeight="1">
+      <c r="Q11" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="Z11" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I2 J1 Z-2.03249  ; X-18 Y-37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="30.75" customHeight="1">
       <c r="A12" s="188" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="188">
+        <v>241</v>
+      </c>
+      <c r="B12" s="195">
+        <v>3</v>
+      </c>
+      <c r="C12" s="195">
+        <v>1</v>
+      </c>
+      <c r="D12" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="188">
+      <c r="E12" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D12" s="188">
+      <c r="F12" s="195">
         <f t="shared" si="2"/>
-        <v>0.12711</v>
-      </c>
-      <c r="E12" s="188">
+        <v>-2.0140699999999998</v>
+      </c>
+      <c r="G12" s="195">
         <f t="shared" si="3"/>
-        <v>1.9299999999999873E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30.75" customHeight="1">
+        <v>0.11665999999999999</v>
+      </c>
+      <c r="H12" s="196">
+        <f>Q19</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="188" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z12" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I3 J1 Z-2.01407  ; X0 Y-37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="30.75" customHeight="1">
       <c r="A13" s="188" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="188">
+        <v>242</v>
+      </c>
+      <c r="B13" s="195">
+        <v>4</v>
+      </c>
+      <c r="C13" s="195">
+        <v>1</v>
+      </c>
+      <c r="D13" s="195">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C13" s="188">
+      <c r="E13" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D13" s="188">
+      <c r="F13" s="195">
         <f t="shared" si="2"/>
-        <v>0.12399</v>
-      </c>
-      <c r="E13" s="188">
+        <v>-2.0667900000000001</v>
+      </c>
+      <c r="G13" s="195">
         <f t="shared" si="3"/>
-        <v>-1.1900000000000105E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="30.75" customHeight="1">
+        <v>6.3939999999999664E-2</v>
+      </c>
+      <c r="H13" s="196">
+        <f>R19</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="188" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z13" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>G29 W I4 J1 Z-2.06679  ; X18 Y-37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="30.75" customHeight="1">
       <c r="A14" s="188" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="188">
+        <v>243</v>
+      </c>
+      <c r="B14" s="195">
+        <v>5</v>
+      </c>
+      <c r="C14" s="195">
+        <v>1</v>
+      </c>
+      <c r="D14" s="195">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C14" s="188">
+      <c r="E14" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D14" s="188">
+      <c r="F14" s="195">
         <f t="shared" si="2"/>
-        <v>0.1207</v>
-      </c>
-      <c r="E14" s="188">
+        <v>-2.1996099999999998</v>
+      </c>
+      <c r="G14" s="195">
         <f t="shared" si="3"/>
-        <v>-4.4800000000000118E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30.75" customHeight="1">
+        <v>-6.8880000000000052E-2</v>
+      </c>
+      <c r="H14" s="196">
+        <f>S19</f>
+        <v>0.02</v>
+      </c>
+      <c r="L14" s="190"/>
+      <c r="M14" s="189">
+        <f>M3</f>
+        <v>55</v>
+      </c>
+      <c r="N14" s="193">
+        <f>AVERAGE(N15+N25,O24+O14,O15+O25)-N24</f>
+        <v>0.46875916666666706</v>
+      </c>
+      <c r="O14" s="193">
+        <f>AVERAGE(P14+P24,O25)-O24</f>
+        <v>0.28588750000000029</v>
+      </c>
+      <c r="P14" s="193">
+        <f>AVERAGE(P25,Q24)-P24</f>
+        <v>0.18875500000000045</v>
+      </c>
+      <c r="Q14" s="192">
+        <v>0.04</v>
+      </c>
+      <c r="R14" s="193">
+        <f>AVERAGE(Q24,R25)-R24</f>
+        <v>0.19246000000000008</v>
+      </c>
+      <c r="S14" s="193">
+        <f>AVERAGE(R14+R24,S25)-S24</f>
+        <v>0.3050799999999998</v>
+      </c>
+      <c r="T14" s="193">
+        <f>AVERAGE(S24+S14,T25+T15,S15+S25)-T24</f>
+        <v>0.50503916666666671</v>
+      </c>
+      <c r="Z14" s="19" t="str">
+        <f>"G29 W I"&amp;B14&amp;" J"&amp;C14&amp;" Z"&amp;ROUND(F14+H14,5)&amp;"  ; X"&amp;D14&amp;" Y"&amp;E14</f>
+        <v>G29 W I5 J1 Z-2.17961  ; X37 Y-37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="30.75" customHeight="1">
       <c r="A15" s="188" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="188">
+        <v>244</v>
+      </c>
+      <c r="B15" s="195">
+        <v>6</v>
+      </c>
+      <c r="C15" s="195">
+        <v>1</v>
+      </c>
+      <c r="D15" s="195">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C15" s="188">
+      <c r="E15" s="195">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D15" s="188">
+      <c r="F15" s="195">
         <f t="shared" si="2"/>
-        <v>0.11759</v>
-      </c>
-      <c r="E15" s="188">
+        <v>-2.3985500000000002</v>
+      </c>
+      <c r="G15" s="195">
         <f t="shared" si="3"/>
-        <v>-7.5900000000000134E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30.75" customHeight="1">
+        <v>-0.26782000000000039</v>
+      </c>
+      <c r="H15" s="196">
+        <f>T19</f>
+        <v>0.28013250000000056</v>
+      </c>
+      <c r="L15" s="190"/>
+      <c r="M15" s="189">
+        <f>M4</f>
+        <v>37</v>
+      </c>
+      <c r="N15" s="193">
+        <f>AVERAGE(N16+N26,O25)-N25</f>
+        <v>0.2159099999999996</v>
+      </c>
+      <c r="O15" s="192">
+        <v>-0.04</v>
+      </c>
+      <c r="P15" s="192">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="192">
+        <v>0</v>
+      </c>
+      <c r="R15" s="192">
+        <v>0.04</v>
+      </c>
+      <c r="S15" s="192">
+        <v>0.04</v>
+      </c>
+      <c r="T15" s="193">
+        <f>AVERAGE(T16+T26,S25)-T25</f>
+        <v>0.24476750000000003</v>
+      </c>
+      <c r="V15" s="188" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z15" s="19" t="str">
+        <f t="shared" ref="Z15:Z50" si="5">"G29 W I"&amp;B15&amp;" J"&amp;C15&amp;" Z"&amp;ROUND(F15+H15,5)&amp;"  ; X"&amp;D15&amp;" Y"&amp;E15</f>
+        <v>G29 W I6 J1 Z-2.11842  ; X55 Y-37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="30.75" customHeight="1">
       <c r="A16" s="188" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="188">
+        <v>245</v>
+      </c>
+      <c r="B16" s="195">
+        <v>0</v>
+      </c>
+      <c r="C16" s="195">
+        <v>2</v>
+      </c>
+      <c r="D16" s="195">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
-      <c r="C16" s="188">
+      <c r="E16" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D16" s="188">
+      <c r="F16" s="195">
         <f t="shared" si="2"/>
-        <v>0.13564000000000001</v>
-      </c>
-      <c r="E16" s="188">
+        <v>-2.1307299999999998</v>
+      </c>
+      <c r="G16" s="195">
         <f t="shared" si="3"/>
-        <v>1.0459999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="196">
+        <f>N18</f>
+        <v>6.4929999999999932E-2</v>
+      </c>
+      <c r="L16" s="190"/>
+      <c r="M16" s="189">
+        <f t="shared" ref="M16:M20" si="6">M5</f>
+        <v>18</v>
+      </c>
+      <c r="N16" s="193">
+        <f>-N26+AVERAGE(N27,O26)</f>
+        <v>8.6889999999999912E-2</v>
+      </c>
+      <c r="O16" s="192">
+        <v>-0.04</v>
+      </c>
+      <c r="P16" s="192">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="192">
+        <v>0</v>
+      </c>
+      <c r="R16" s="192">
+        <v>0</v>
+      </c>
+      <c r="S16" s="192">
+        <v>0</v>
+      </c>
+      <c r="T16" s="193">
+        <f>AVERAGE(S26,T27)-T26</f>
+        <v>0.110595</v>
+      </c>
+      <c r="V16" s="188" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z16" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I0 J2 Z-2.0658  ; X-55 Y-18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="30.75" customHeight="1">
       <c r="A17" s="188" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="188">
+        <v>246</v>
+      </c>
+      <c r="B17" s="195">
+        <v>1</v>
+      </c>
+      <c r="C17" s="195">
+        <v>2</v>
+      </c>
+      <c r="D17" s="195">
         <f t="shared" si="0"/>
         <v>-37</v>
       </c>
-      <c r="C17" s="188">
+      <c r="E17" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D17" s="188">
+      <c r="F17" s="195">
         <f t="shared" si="2"/>
-        <v>0.13252</v>
-      </c>
-      <c r="E17" s="188">
+        <v>-1.9603200000000001</v>
+      </c>
+      <c r="G17" s="195">
         <f t="shared" si="3"/>
-        <v>7.3399999999999854E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.17040999999999973</v>
+      </c>
+      <c r="H17" s="196">
+        <f>O18</f>
+        <v>-0.04</v>
+      </c>
+      <c r="L17" s="189" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="189">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="192">
+        <v>-0.04</v>
+      </c>
+      <c r="O17" s="192">
+        <v>-0.04</v>
+      </c>
+      <c r="P17" s="192">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="192">
+        <v>0</v>
+      </c>
+      <c r="R17" s="192">
+        <v>0</v>
+      </c>
+      <c r="S17" s="192">
+        <v>0</v>
+      </c>
+      <c r="T17" s="192">
+        <v>0</v>
+      </c>
+      <c r="V17" s="188" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z17" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I1 J2 Z-2.00032  ; X-37 Y-18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="30.75" customHeight="1">
       <c r="A18" s="188" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="188">
+        <v>247</v>
+      </c>
+      <c r="B18" s="195">
+        <v>2</v>
+      </c>
+      <c r="C18" s="195">
+        <v>2</v>
+      </c>
+      <c r="D18" s="195">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="C18" s="188">
+      <c r="E18" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D18" s="188">
+      <c r="F18" s="195">
         <f t="shared" si="2"/>
-        <v>0.12923000000000001</v>
-      </c>
-      <c r="E18" s="188">
+        <v>-1.85761</v>
+      </c>
+      <c r="G18" s="195">
         <f t="shared" si="3"/>
-        <v>4.049999999999998E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.27311999999999981</v>
+      </c>
+      <c r="H18" s="196">
+        <f>P18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="190"/>
+      <c r="M18" s="189">
+        <f t="shared" si="6"/>
+        <v>-18</v>
+      </c>
+      <c r="N18" s="193">
+        <f>-N28+AVERAGE(N27,O28)</f>
+        <v>6.4929999999999932E-2</v>
+      </c>
+      <c r="O18" s="192">
+        <v>-0.04</v>
+      </c>
+      <c r="P18" s="192">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="192">
+        <v>0</v>
+      </c>
+      <c r="R18" s="192">
+        <v>0</v>
+      </c>
+      <c r="S18" s="192">
+        <v>0.02</v>
+      </c>
+      <c r="T18" s="193">
+        <f>AVERAGE(S28,T27)-T28</f>
+        <v>0.14302500000000018</v>
+      </c>
+      <c r="V18" s="188" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z18" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I2 J2 Z-1.85761  ; X-18 Y-18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="30.75" customHeight="1">
       <c r="A19" s="188" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="188">
+        <v>248</v>
+      </c>
+      <c r="B19" s="195">
+        <v>3</v>
+      </c>
+      <c r="C19" s="195">
+        <v>2</v>
+      </c>
+      <c r="D19" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="188">
+      <c r="E19" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D19" s="188">
+      <c r="F19" s="195">
         <f t="shared" si="2"/>
-        <v>0.12612000000000001</v>
-      </c>
-      <c r="E19" s="188">
+        <v>-1.83342</v>
+      </c>
+      <c r="G19" s="195">
         <f t="shared" si="3"/>
-        <v>9.3999999999999639E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.29730999999999974</v>
+      </c>
+      <c r="H19" s="196">
+        <f>Q18</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="190"/>
+      <c r="M19" s="189">
+        <f t="shared" si="6"/>
+        <v>-37</v>
+      </c>
+      <c r="N19" s="193">
+        <f>AVERAGE(N18+N28,O29)-N29</f>
+        <v>0.18628499999999981</v>
+      </c>
+      <c r="O19" s="192">
+        <v>-0.02</v>
+      </c>
+      <c r="P19" s="192">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="192">
+        <v>0</v>
+      </c>
+      <c r="R19" s="192">
+        <v>0</v>
+      </c>
+      <c r="S19" s="192">
+        <v>0.02</v>
+      </c>
+      <c r="T19" s="193">
+        <f>AVERAGE(T18+T28,S29)-T29</f>
+        <v>0.28013250000000056</v>
+      </c>
+      <c r="V19" s="188" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z19" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I3 J2 Z-1.83342  ; X0 Y-18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="30.75" customHeight="1">
       <c r="A20" s="188" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="188">
+        <v>249</v>
+      </c>
+      <c r="B20" s="195">
+        <v>4</v>
+      </c>
+      <c r="C20" s="195">
+        <v>2</v>
+      </c>
+      <c r="D20" s="195">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="188">
+      <c r="E20" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D20" s="188">
+      <c r="F20" s="195">
         <f t="shared" si="2"/>
-        <v>0.123</v>
-      </c>
-      <c r="E20" s="188">
+        <v>-1.88036</v>
+      </c>
+      <c r="G20" s="195">
         <f t="shared" si="3"/>
-        <v>-2.1800000000000153E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.25036999999999976</v>
+      </c>
+      <c r="H20" s="196">
+        <f>R18</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="190"/>
+      <c r="M20" s="189">
+        <f t="shared" si="6"/>
+        <v>-55</v>
+      </c>
+      <c r="N20" s="193">
+        <f>AVERAGE(N19+N29,O30+O20,O19+O29)-N30</f>
+        <v>0.41836999999999991</v>
+      </c>
+      <c r="O20" s="193">
+        <f>AVERAGE(P20+P30,O29)-O30</f>
+        <v>0.24624500000000005</v>
+      </c>
+      <c r="P20" s="193">
+        <f>-P30+AVERAGE(P29,Q30)</f>
+        <v>0.1467900000000002</v>
+      </c>
+      <c r="Q20" s="192">
+        <v>0</v>
+      </c>
+      <c r="R20" s="193">
+        <f>-R30+AVERAGE(Q30,R29)</f>
+        <v>0.17488999999999999</v>
+      </c>
+      <c r="S20" s="193">
+        <f>AVERAGE(R30+R20,S29)-S30</f>
+        <v>0.31543000000000054</v>
+      </c>
+      <c r="T20" s="193">
+        <f>AVERAGE(S30+S20,T29+T19,S19+S29)-T30</f>
+        <v>0.54819750000000012</v>
+      </c>
+      <c r="V20" s="188" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z20" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I4 J2 Z-1.88036  ; X18 Y-18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="30.75" customHeight="1">
       <c r="A21" s="188" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="188">
+        <v>250</v>
+      </c>
+      <c r="B21" s="195">
+        <v>5</v>
+      </c>
+      <c r="C21" s="195">
+        <v>2</v>
+      </c>
+      <c r="D21" s="195">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C21" s="188">
+      <c r="E21" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D21" s="188">
+      <c r="F21" s="195">
         <f t="shared" si="2"/>
-        <v>0.11971</v>
-      </c>
-      <c r="E21" s="188">
+        <v>-2.0070899999999998</v>
+      </c>
+      <c r="G21" s="195">
         <f t="shared" si="3"/>
-        <v>-5.4700000000000165E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.12363999999999997</v>
+      </c>
+      <c r="H21" s="196">
+        <f>S18</f>
+        <v>0.02</v>
+      </c>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="189">
+        <f>N10</f>
+        <v>-55</v>
+      </c>
+      <c r="O21" s="189">
+        <f>O10</f>
+        <v>-37</v>
+      </c>
+      <c r="P21" s="189">
+        <f t="shared" ref="P21:T21" si="7">P10</f>
+        <v>-18</v>
+      </c>
+      <c r="Q21" s="189">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="189">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="S21" s="189">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="T21" s="189">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="Z21" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I5 J2 Z-1.98709  ; X37 Y-18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="30.75" customHeight="1">
       <c r="A22" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="188">
+        <v>251</v>
+      </c>
+      <c r="B22" s="195">
+        <v>6</v>
+      </c>
+      <c r="C22" s="195">
+        <v>2</v>
+      </c>
+      <c r="D22" s="195">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C22" s="188">
+      <c r="E22" s="195">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="D22" s="188">
+      <c r="F22" s="195">
         <f t="shared" si="2"/>
-        <v>0.1166</v>
-      </c>
-      <c r="E22" s="188">
+        <v>-2.20025</v>
+      </c>
+      <c r="G22" s="195">
         <f t="shared" si="3"/>
-        <v>-8.5800000000000182E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30.75" customHeight="1">
+        <v>-6.9520000000000248E-2</v>
+      </c>
+      <c r="H22" s="196">
+        <f>T18</f>
+        <v>0.14302500000000018</v>
+      </c>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="Z22" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I6 J2 Z-2.05723  ; X55 Y-18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="30.75" customHeight="1">
       <c r="A23" s="188" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="188">
+        <v>252</v>
+      </c>
+      <c r="B23" s="195">
+        <v>0</v>
+      </c>
+      <c r="C23" s="195">
+        <v>3</v>
+      </c>
+      <c r="D23" s="195">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
-      <c r="C23" s="188">
+      <c r="E23" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="188">
+      <c r="F23" s="195">
         <f t="shared" si="2"/>
-        <v>0.13469999999999999</v>
-      </c>
-      <c r="E23" s="188">
+        <v>-2.0912799999999998</v>
+      </c>
+      <c r="G23" s="195">
         <f t="shared" si="3"/>
-        <v>9.5199999999999729E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30.75" customHeight="1">
+        <v>3.9449999999999985E-2</v>
+      </c>
+      <c r="H23" s="196">
+        <f>N17</f>
+        <v>-0.04</v>
+      </c>
+      <c r="J23" s="188" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z23" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I0 J3 Z-2.13128  ; X-55 Y0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="30.75" customHeight="1">
       <c r="A24" s="188" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="188">
+        <v>253</v>
+      </c>
+      <c r="B24" s="195">
+        <v>1</v>
+      </c>
+      <c r="C24" s="195">
+        <v>3</v>
+      </c>
+      <c r="D24" s="195">
         <f t="shared" si="0"/>
         <v>-37</v>
       </c>
-      <c r="C24" s="188">
+      <c r="E24" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="188">
+      <c r="F24" s="195">
         <f t="shared" si="2"/>
-        <v>0.13158</v>
-      </c>
-      <c r="E24" s="188">
+        <v>-1.9154</v>
+      </c>
+      <c r="G24" s="195">
         <f t="shared" si="3"/>
-        <v>6.399999999999989E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.2153299999999998</v>
+      </c>
+      <c r="H24" s="196">
+        <f>O17</f>
+        <v>-0.04</v>
+      </c>
+      <c r="L24" s="190"/>
+      <c r="M24" s="189">
+        <f>M14</f>
+        <v>55</v>
+      </c>
+      <c r="N24" s="194">
+        <f>F44</f>
+        <v>-2.6638700000000002</v>
+      </c>
+      <c r="O24" s="194">
+        <f>F45</f>
+        <v>-2.47126</v>
+      </c>
+      <c r="P24" s="194">
+        <f>F46</f>
+        <v>-2.3451300000000002</v>
+      </c>
+      <c r="Q24" s="193">
+        <f>F47+Q14</f>
+        <v>-2.25874</v>
+      </c>
+      <c r="R24" s="194">
+        <f>F48</f>
+        <v>-2.3234900000000001</v>
+      </c>
+      <c r="S24" s="194">
+        <f>F49</f>
+        <v>-2.42679</v>
+      </c>
+      <c r="T24" s="194">
+        <f>F50</f>
+        <v>-2.5977600000000001</v>
+      </c>
+      <c r="Z24" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I1 J3 Z-1.9554  ; X-37 Y0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="30.75" customHeight="1">
       <c r="A25" s="188" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="188">
+        <v>254</v>
+      </c>
+      <c r="B25" s="195">
+        <v>2</v>
+      </c>
+      <c r="C25" s="195">
+        <v>3</v>
+      </c>
+      <c r="D25" s="195">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="C25" s="188">
+      <c r="E25" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="188">
+      <c r="F25" s="195">
         <f t="shared" si="2"/>
-        <v>0.12828999999999999</v>
-      </c>
-      <c r="E25" s="188">
+        <v>-1.80691</v>
+      </c>
+      <c r="G25" s="195">
         <f t="shared" si="3"/>
-        <v>3.1099999999999739E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.32381999999999977</v>
+      </c>
+      <c r="H25" s="196">
+        <f>P17</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="190"/>
+      <c r="M25" s="189">
+        <f t="shared" ref="M25:M30" si="8">M15</f>
+        <v>37</v>
+      </c>
+      <c r="N25" s="194">
+        <f>F37</f>
+        <v>-2.3614999999999999</v>
+      </c>
+      <c r="O25" s="193">
+        <f>F38+O15</f>
+        <v>-2.2143700000000002</v>
+      </c>
+      <c r="P25" s="193">
+        <f>F39+P15</f>
+        <v>-2.0540099999999999</v>
+      </c>
+      <c r="Q25" s="193">
+        <f>F40+Q15</f>
+        <v>-2.0131000000000001</v>
+      </c>
+      <c r="R25" s="193">
+        <f>F41+R15</f>
+        <v>-2.00332</v>
+      </c>
+      <c r="S25" s="193">
+        <f>F42+S15</f>
+        <v>-2.11239</v>
+      </c>
+      <c r="T25" s="194">
+        <f>F43</f>
+        <v>-2.32883</v>
+      </c>
+      <c r="Z25" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I2 J3 Z-1.80691  ; X-18 Y0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="30.75" customHeight="1">
       <c r="A26" s="188" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="188">
+        <v>255</v>
+      </c>
+      <c r="B26" s="195">
+        <v>3</v>
+      </c>
+      <c r="C26" s="195">
+        <v>3</v>
+      </c>
+      <c r="D26" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C26" s="188">
+      <c r="E26" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="188">
+      <c r="F26" s="195">
         <f t="shared" si="2"/>
-        <v>0.12518000000000001</v>
-      </c>
-      <c r="E26" s="188">
+        <v>-1.77725</v>
+      </c>
+      <c r="G26" s="195">
         <f t="shared" si="3"/>
+        <v>0.35347999999999979</v>
+      </c>
+      <c r="H26" s="196">
+        <f>Q17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="30.75" customHeight="1">
+      <c r="L26" s="190"/>
+      <c r="M26" s="189">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="N26" s="194">
+        <f>F30</f>
+        <v>-2.1637</v>
+      </c>
+      <c r="O26" s="193">
+        <f>F31+O16</f>
+        <v>-2.0223399999999998</v>
+      </c>
+      <c r="P26" s="193">
+        <f>F32+P16</f>
+        <v>-1.86808</v>
+      </c>
+      <c r="Q26" s="193">
+        <f>F33+Q16</f>
+        <v>-1.8329500000000001</v>
+      </c>
+      <c r="R26" s="193">
+        <f>F34+R16</f>
+        <v>-1.8689499999999999</v>
+      </c>
+      <c r="S26" s="193">
+        <f>F35+S16</f>
+        <v>-1.98411</v>
+      </c>
+      <c r="T26" s="194">
+        <f>F36</f>
+        <v>-2.1663299999999999</v>
+      </c>
+      <c r="Z26" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I3 J3 Z-1.77725  ; X0 Y0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="30.75" customHeight="1">
       <c r="A27" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="188">
+        <v>256</v>
+      </c>
+      <c r="B27" s="195">
+        <v>4</v>
+      </c>
+      <c r="C27" s="195">
+        <v>3</v>
+      </c>
+      <c r="D27" s="195">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="188">
+      <c r="E27" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="188">
+      <c r="F27" s="195">
         <f t="shared" si="2"/>
-        <v>0.12206</v>
-      </c>
-      <c r="E27" s="188">
+        <v>-1.8187199999999999</v>
+      </c>
+      <c r="G27" s="195">
         <f t="shared" si="3"/>
-        <v>-3.1200000000000117E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.3120099999999999</v>
+      </c>
+      <c r="H27" s="196">
+        <f>R17</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="189" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="189">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="193">
+        <f>F23+N17</f>
+        <v>-2.1312799999999998</v>
+      </c>
+      <c r="O27" s="193">
+        <f>F24+O17</f>
+        <v>-1.9554</v>
+      </c>
+      <c r="P27" s="193">
+        <f>F25+P17</f>
+        <v>-1.80691</v>
+      </c>
+      <c r="Q27" s="193">
+        <f>F26+Q17</f>
+        <v>-1.77725</v>
+      </c>
+      <c r="R27" s="193">
+        <f>F27+R17</f>
+        <v>-1.8187199999999999</v>
+      </c>
+      <c r="S27" s="193">
+        <f>F28+S17</f>
+        <v>-1.93967</v>
+      </c>
+      <c r="T27" s="193">
+        <f>F29+T17</f>
+        <v>-2.1273599999999999</v>
+      </c>
+      <c r="Z27" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I4 J3 Z-1.81872  ; X18 Y0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="30.75" customHeight="1">
       <c r="A28" s="188" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="188">
+        <v>257</v>
+      </c>
+      <c r="B28" s="195">
+        <v>5</v>
+      </c>
+      <c r="C28" s="195">
+        <v>3</v>
+      </c>
+      <c r="D28" s="195">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C28" s="188">
+      <c r="E28" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="188">
+      <c r="F28" s="195">
         <f t="shared" si="2"/>
-        <v>0.11877</v>
-      </c>
-      <c r="E28" s="188">
+        <v>-1.93967</v>
+      </c>
+      <c r="G28" s="195">
         <f t="shared" si="3"/>
-        <v>-6.4100000000000129E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.19105999999999979</v>
+      </c>
+      <c r="H28" s="196">
+        <f>S17</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="190"/>
+      <c r="M28" s="189">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+      <c r="N28" s="194">
+        <f>F16</f>
+        <v>-2.1307299999999998</v>
+      </c>
+      <c r="O28" s="193">
+        <f>F17+O18</f>
+        <v>-2.0003199999999999</v>
+      </c>
+      <c r="P28" s="193">
+        <f>F18+P18</f>
+        <v>-1.85761</v>
+      </c>
+      <c r="Q28" s="193">
+        <f>F19+Q18</f>
+        <v>-1.83342</v>
+      </c>
+      <c r="R28" s="193">
+        <f>F20+R18</f>
+        <v>-1.88036</v>
+      </c>
+      <c r="S28" s="193">
+        <f>F21+S18</f>
+        <v>-1.9870899999999998</v>
+      </c>
+      <c r="T28" s="194">
+        <f>F22</f>
+        <v>-2.20025</v>
+      </c>
+      <c r="Z28" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I5 J3 Z-1.93967  ; X37 Y0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="30.75" customHeight="1">
       <c r="A29" s="188" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="188">
+        <v>258</v>
+      </c>
+      <c r="B29" s="195">
+        <v>6</v>
+      </c>
+      <c r="C29" s="195">
+        <v>3</v>
+      </c>
+      <c r="D29" s="195">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C29" s="188">
+      <c r="E29" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="188">
+      <c r="F29" s="195">
         <f t="shared" si="2"/>
-        <v>0.11566</v>
-      </c>
-      <c r="E29" s="188">
+        <v>-2.1273599999999999</v>
+      </c>
+      <c r="G29" s="195">
         <f t="shared" si="3"/>
-        <v>-9.5200000000000146E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30.75" customHeight="1">
+        <v>3.3699999999998731E-3</v>
+      </c>
+      <c r="H29" s="196">
+        <f>T17</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="190"/>
+      <c r="M29" s="189">
+        <f t="shared" si="8"/>
+        <v>-37</v>
+      </c>
+      <c r="N29" s="194">
+        <f>F9</f>
+        <v>-2.29373</v>
+      </c>
+      <c r="O29" s="193">
+        <f>F10+O19</f>
+        <v>-2.1490900000000002</v>
+      </c>
+      <c r="P29" s="193">
+        <f>F11+P19</f>
+        <v>-2.0324900000000001</v>
+      </c>
+      <c r="Q29" s="193">
+        <f>F12+Q19</f>
+        <v>-2.0140699999999998</v>
+      </c>
+      <c r="R29" s="193">
+        <f>F13+R19</f>
+        <v>-2.0667900000000001</v>
+      </c>
+      <c r="S29" s="193">
+        <f>F14+S19</f>
+        <v>-2.1796099999999998</v>
+      </c>
+      <c r="T29" s="194">
+        <f>F15</f>
+        <v>-2.3985500000000002</v>
+      </c>
+      <c r="Z29" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I6 J3 Z-2.12736  ; X55 Y0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="30.75" customHeight="1">
       <c r="A30" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="B30" s="188">
+        <v>259</v>
+      </c>
+      <c r="B30" s="195">
+        <v>0</v>
+      </c>
+      <c r="C30" s="195">
+        <v>4</v>
+      </c>
+      <c r="D30" s="195">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
-      <c r="C30" s="188">
+      <c r="E30" s="195">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D30" s="188">
+      <c r="F30" s="195">
         <f t="shared" si="2"/>
-        <v>0.13375999999999999</v>
-      </c>
-      <c r="E30" s="188">
+        <v>-2.1637</v>
+      </c>
+      <c r="G30" s="195">
         <f t="shared" si="3"/>
-        <v>8.5799999999999765E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30.75" customHeight="1">
+        <v>-3.2970000000000166E-2</v>
+      </c>
+      <c r="H30" s="196">
+        <f>N16</f>
+        <v>8.6889999999999912E-2</v>
+      </c>
+      <c r="L30" s="190"/>
+      <c r="M30" s="189">
+        <f t="shared" si="8"/>
+        <v>-55</v>
+      </c>
+      <c r="N30" s="194">
+        <f>F2</f>
+        <v>-2.5631200000000001</v>
+      </c>
+      <c r="O30" s="194">
+        <f>F3</f>
+        <v>-2.4039600000000001</v>
+      </c>
+      <c r="P30" s="194">
+        <f>F4</f>
+        <v>-2.3131300000000001</v>
+      </c>
+      <c r="Q30" s="193">
+        <f>F5+Q20</f>
+        <v>-2.3001900000000002</v>
+      </c>
+      <c r="R30" s="194">
+        <f>F6</f>
+        <v>-2.3583799999999999</v>
+      </c>
+      <c r="S30" s="194">
+        <f>F7</f>
+        <v>-2.4969800000000002</v>
+      </c>
+      <c r="T30" s="194">
+        <f>F8</f>
+        <v>-2.70139</v>
+      </c>
+      <c r="Z30" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I0 J4 Z-2.07681  ; X-55 Y18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="30.75" customHeight="1">
       <c r="A31" s="188" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" s="188">
+        <v>260</v>
+      </c>
+      <c r="B31" s="195">
+        <v>1</v>
+      </c>
+      <c r="C31" s="195">
+        <v>4</v>
+      </c>
+      <c r="D31" s="195">
         <f t="shared" si="0"/>
         <v>-37</v>
       </c>
-      <c r="C31" s="188">
+      <c r="E31" s="195">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D31" s="188">
+      <c r="F31" s="195">
         <f t="shared" si="2"/>
-        <v>0.13064000000000001</v>
-      </c>
-      <c r="E31" s="188">
+        <v>-1.98234</v>
+      </c>
+      <c r="G31" s="195">
         <f t="shared" si="3"/>
-        <v>5.4599999999999926E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.1483899999999998</v>
+      </c>
+      <c r="H31" s="196">
+        <f>O16</f>
+        <v>-0.04</v>
+      </c>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="189">
+        <f>N21</f>
+        <v>-55</v>
+      </c>
+      <c r="O31" s="189">
+        <f t="shared" ref="O31:T31" si="9">O21</f>
+        <v>-37</v>
+      </c>
+      <c r="P31" s="189">
+        <f t="shared" si="9"/>
+        <v>-18</v>
+      </c>
+      <c r="Q31" s="189">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="189">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="S31" s="189">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="T31" s="189">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="Z31" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I1 J4 Z-2.02234  ; X-37 Y18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="30.75" customHeight="1">
       <c r="A32" s="188" t="s">
-        <v>260</v>
-      </c>
-      <c r="B32" s="188">
+        <v>261</v>
+      </c>
+      <c r="B32" s="195">
+        <v>2</v>
+      </c>
+      <c r="C32" s="195">
+        <v>4</v>
+      </c>
+      <c r="D32" s="195">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="C32" s="188">
+      <c r="E32" s="195">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D32" s="188">
+      <c r="F32" s="195">
         <f t="shared" si="2"/>
-        <v>0.12736</v>
-      </c>
-      <c r="E32" s="188">
+        <v>-1.86808</v>
+      </c>
+      <c r="G32" s="195">
         <f t="shared" si="3"/>
-        <v>2.1799999999999875E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.26264999999999983</v>
+      </c>
+      <c r="H32" s="196">
+        <f>P16</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="Z32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I2 J4 Z-1.86808  ; X-18 Y18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="30.75" customHeight="1">
       <c r="A33" s="188" t="s">
-        <v>261</v>
-      </c>
-      <c r="B33" s="188">
+        <v>262</v>
+      </c>
+      <c r="B33" s="195">
+        <v>3</v>
+      </c>
+      <c r="C33" s="195">
+        <v>4</v>
+      </c>
+      <c r="D33" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C33" s="188">
+      <c r="E33" s="195">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D33" s="188">
+      <c r="F33" s="195">
         <f t="shared" si="2"/>
-        <v>0.12424</v>
-      </c>
-      <c r="E33" s="188">
+        <v>-1.8329500000000001</v>
+      </c>
+      <c r="G33" s="195">
         <f t="shared" si="3"/>
-        <v>-9.4000000000001027E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30.75" customHeight="1">
+        <v>0.29777999999999971</v>
+      </c>
+      <c r="H33" s="196">
+        <f>Q16</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I3 J4 Z-1.83295  ; X0 Y18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="30.75" customHeight="1">
       <c r="A34" s="188" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="188">
-        <f t="shared" ref="B34:B50" si="4">VALUE(RIGHT(LEFT(A34,FIND("Y",A34)-1),FIND("Y",A34)-FIND("X",A34)-1))</f>
+        <v>263</v>
+      </c>
+      <c r="B34" s="195">
+        <v>4</v>
+      </c>
+      <c r="C34" s="195">
+        <v>4</v>
+      </c>
+      <c r="D34" s="195">
+        <f t="shared" ref="D34:D50" si="10">VALUE(RIGHT(LEFT(A34,FIND("Y",A34)-1),FIND("Y",A34)-FIND("X",A34)-1))</f>
         <v>18</v>
       </c>
-      <c r="C34" s="188">
-        <f t="shared" ref="C34:C50" si="5">VALUE(RIGHT(A34,LEN(A34)-FIND("Y",A34)))</f>
+      <c r="E34" s="195">
+        <f t="shared" ref="E34:E50" si="11">VALUE(RIGHT(A34,LEN(A34)-FIND("Y",A34)))</f>
         <v>18</v>
       </c>
-      <c r="D34" s="188">
-        <f t="shared" ref="D34:D50" si="6">VALUE(RIGHT(LEFT(A34,FIND("X",A34)-3),FIND("X",A34)-FIND("Z",A34)-3))</f>
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="E34" s="188">
-        <f t="shared" ref="E34:E65" si="7">D34-$F$2</f>
-        <v>-4.060000000000008E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30.75" customHeight="1">
+      <c r="F34" s="195">
+        <f t="shared" ref="F34:F50" si="12">VALUE(RIGHT(LEFT(A34,FIND("X",A34)-3),FIND("X",A34)-FIND("Z",A34)-3))</f>
+        <v>-1.8689499999999999</v>
+      </c>
+      <c r="G34" s="195">
+        <f t="shared" ref="G34:G50" si="13">F34-$I$2</f>
+        <v>0.2617799999999999</v>
+      </c>
+      <c r="H34" s="196">
+        <f>R16</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I4 J4 Z-1.86895  ; X18 Y18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="30.75" customHeight="1">
       <c r="A35" s="188" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="188">
-        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B35" s="195">
+        <v>5</v>
+      </c>
+      <c r="C35" s="195">
+        <v>4</v>
+      </c>
+      <c r="D35" s="195">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="C35" s="188">
+      <c r="E35" s="195">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="F35" s="195">
+        <f t="shared" si="12"/>
+        <v>-1.98411</v>
+      </c>
+      <c r="G35" s="195">
+        <f t="shared" si="13"/>
+        <v>0.14661999999999975</v>
+      </c>
+      <c r="H35" s="196">
+        <f>S16</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="19" t="str">
         <f t="shared" si="5"/>
+        <v>G29 W I5 J4 Z-1.98411  ; X37 Y18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A36" s="188" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="195">
+        <v>6</v>
+      </c>
+      <c r="C36" s="195">
+        <v>4</v>
+      </c>
+      <c r="D36" s="195">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="E36" s="195">
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D35" s="188">
-        <f t="shared" si="6"/>
-        <v>0.11784</v>
-      </c>
-      <c r="E35" s="188">
-        <f t="shared" si="7"/>
-        <v>-7.3400000000000132E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A36" s="188" t="s">
-        <v>264</v>
-      </c>
-      <c r="B36" s="188">
-        <f t="shared" si="4"/>
+      <c r="F36" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.1663299999999999</v>
+      </c>
+      <c r="G36" s="195">
+        <f t="shared" si="13"/>
+        <v>-3.5600000000000076E-2</v>
+      </c>
+      <c r="H36" s="196">
+        <f>T16</f>
+        <v>0.110595</v>
+      </c>
+      <c r="Z36" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I6 J4 Z-2.05574  ; X55 Y18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A37" s="188" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="195">
+        <v>0</v>
+      </c>
+      <c r="C37" s="195">
+        <v>5</v>
+      </c>
+      <c r="D37" s="195">
+        <f t="shared" si="10"/>
+        <v>-55</v>
+      </c>
+      <c r="E37" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F37" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.3614999999999999</v>
+      </c>
+      <c r="G37" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.23077000000000014</v>
+      </c>
+      <c r="H37" s="196">
+        <f>N15</f>
+        <v>0.2159099999999996</v>
+      </c>
+      <c r="Z37" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I0 J5 Z-2.14559  ; X-55 Y37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A38" s="188" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="195">
+        <v>1</v>
+      </c>
+      <c r="C38" s="195">
+        <v>5</v>
+      </c>
+      <c r="D38" s="195">
+        <f t="shared" si="10"/>
+        <v>-37</v>
+      </c>
+      <c r="E38" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F38" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.1743700000000001</v>
+      </c>
+      <c r="G38" s="195">
+        <f t="shared" si="13"/>
+        <v>-4.3640000000000345E-2</v>
+      </c>
+      <c r="H38" s="196">
+        <f>O15</f>
+        <v>-0.04</v>
+      </c>
+      <c r="Z38" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I1 J5 Z-2.21437  ; X-37 Y37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A39" s="188" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="195">
+        <v>2</v>
+      </c>
+      <c r="C39" s="195">
+        <v>5</v>
+      </c>
+      <c r="D39" s="195">
+        <f t="shared" si="10"/>
+        <v>-18</v>
+      </c>
+      <c r="E39" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F39" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.0540099999999999</v>
+      </c>
+      <c r="G39" s="195">
+        <f t="shared" si="13"/>
+        <v>7.6719999999999899E-2</v>
+      </c>
+      <c r="H39" s="196">
+        <f>P15</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I2 J5 Z-2.05401  ; X-18 Y37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A40" s="188" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="195">
+        <v>3</v>
+      </c>
+      <c r="C40" s="195">
+        <v>5</v>
+      </c>
+      <c r="D40" s="195">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F40" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.0131000000000001</v>
+      </c>
+      <c r="G40" s="195">
+        <f t="shared" si="13"/>
+        <v>0.11762999999999968</v>
+      </c>
+      <c r="H40" s="196">
+        <f>Q15</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I3 J5 Z-2.0131  ; X0 Y37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A41" s="188" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="195">
+        <v>4</v>
+      </c>
+      <c r="C41" s="195">
+        <v>5</v>
+      </c>
+      <c r="D41" s="195">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E41" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F41" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.04332</v>
+      </c>
+      <c r="G41" s="195">
+        <f t="shared" si="13"/>
+        <v>8.7409999999999766E-2</v>
+      </c>
+      <c r="H41" s="196">
+        <f>R15</f>
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I4 J5 Z-2.00332  ; X18 Y37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A42" s="188" t="s">
+        <v>271</v>
+      </c>
+      <c r="B42" s="195">
+        <v>5</v>
+      </c>
+      <c r="C42" s="195">
+        <v>5</v>
+      </c>
+      <c r="D42" s="195">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="E42" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F42" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.15239</v>
+      </c>
+      <c r="G42" s="195">
+        <f t="shared" si="13"/>
+        <v>-2.1660000000000235E-2</v>
+      </c>
+      <c r="H42" s="196">
+        <f>S15</f>
+        <v>0.04</v>
+      </c>
+      <c r="Z42" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I5 J5 Z-2.11239  ; X37 Y37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A43" s="188" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="195">
+        <v>6</v>
+      </c>
+      <c r="C43" s="195">
+        <v>5</v>
+      </c>
+      <c r="D43" s="195">
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="C36" s="188">
+      <c r="E43" s="195">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F43" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.32883</v>
+      </c>
+      <c r="G43" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.19810000000000016</v>
+      </c>
+      <c r="H43" s="196">
+        <f>T15</f>
+        <v>0.24476750000000003</v>
+      </c>
+      <c r="Z43" s="19" t="str">
         <f t="shared" si="5"/>
+        <v>G29 W I6 J5 Z-2.08406  ; X55 Y37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A44" s="188" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" s="195">
+        <v>0</v>
+      </c>
+      <c r="C44" s="195">
+        <v>6</v>
+      </c>
+      <c r="D44" s="195">
+        <f t="shared" si="10"/>
+        <v>-55</v>
+      </c>
+      <c r="E44" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F44" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.6638700000000002</v>
+      </c>
+      <c r="G44" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.53314000000000039</v>
+      </c>
+      <c r="H44" s="196">
+        <f>N14</f>
+        <v>0.46875916666666706</v>
+      </c>
+      <c r="Z44" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I0 J6 Z-2.19511  ; X-55 Y55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A45" s="188" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" s="195">
+        <v>1</v>
+      </c>
+      <c r="C45" s="195">
+        <v>6</v>
+      </c>
+      <c r="D45" s="195">
+        <f t="shared" si="10"/>
+        <v>-37</v>
+      </c>
+      <c r="E45" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F45" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.47126</v>
+      </c>
+      <c r="G45" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.34053000000000022</v>
+      </c>
+      <c r="H45" s="196">
+        <f>O14</f>
+        <v>0.28588750000000029</v>
+      </c>
+      <c r="Z45" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I1 J6 Z-2.18537  ; X-37 Y55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A46" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="195">
+        <v>2</v>
+      </c>
+      <c r="C46" s="195">
+        <v>6</v>
+      </c>
+      <c r="D46" s="195">
+        <f t="shared" si="10"/>
+        <v>-18</v>
+      </c>
+      <c r="E46" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F46" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.3451300000000002</v>
+      </c>
+      <c r="G46" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.21440000000000037</v>
+      </c>
+      <c r="H46" s="196">
+        <f>P14</f>
+        <v>0.18875500000000045</v>
+      </c>
+      <c r="Z46" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I2 J6 Z-2.15638  ; X-18 Y55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A47" s="188" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" s="195">
+        <v>3</v>
+      </c>
+      <c r="C47" s="195">
+        <v>6</v>
+      </c>
+      <c r="D47" s="195">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F47" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.29874</v>
+      </c>
+      <c r="G47" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.16801000000000021</v>
+      </c>
+      <c r="H47" s="196">
+        <f>Q14</f>
+        <v>0.04</v>
+      </c>
+      <c r="Z47" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>G29 W I3 J6 Z-2.25874  ; X0 Y55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A48" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="195">
+        <v>4</v>
+      </c>
+      <c r="C48" s="195">
+        <v>6</v>
+      </c>
+      <c r="D48" s="195">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="D36" s="188">
-        <f t="shared" si="6"/>
-        <v>0.11472</v>
-      </c>
-      <c r="E36" s="188">
-        <f t="shared" si="7"/>
-        <v>-1.0460000000000011E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A37" s="188" t="s">
-        <v>265</v>
-      </c>
-      <c r="B37" s="188">
-        <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
-      <c r="C37" s="188">
+      <c r="E48" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F48" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.3234900000000001</v>
+      </c>
+      <c r="G48" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.19276000000000026</v>
+      </c>
+      <c r="H48" s="196">
+        <f>R14</f>
+        <v>0.19246000000000008</v>
+      </c>
+      <c r="Z48" s="19" t="str">
         <f t="shared" si="5"/>
+        <v>G29 W I4 J6 Z-2.13103  ; X18 Y55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A49" s="188" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="195">
+        <v>5</v>
+      </c>
+      <c r="C49" s="195">
+        <v>6</v>
+      </c>
+      <c r="D49" s="195">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="D37" s="188">
-        <f t="shared" si="6"/>
-        <v>0.13277</v>
-      </c>
-      <c r="E37" s="188">
-        <f t="shared" si="7"/>
-        <v>7.5899999999999856E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A38" s="188" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="188">
-        <f t="shared" si="4"/>
-        <v>-37</v>
-      </c>
-      <c r="C38" s="188">
+      <c r="E49" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F49" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.42679</v>
+      </c>
+      <c r="G49" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.29606000000000021</v>
+      </c>
+      <c r="H49" s="196">
+        <f>S14</f>
+        <v>0.3050799999999998</v>
+      </c>
+      <c r="Z49" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="D38" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12964999999999999</v>
-      </c>
-      <c r="E38" s="188">
-        <f t="shared" si="7"/>
-        <v>4.469999999999974E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A39" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="188">
-        <f t="shared" si="4"/>
-        <v>-18</v>
-      </c>
-      <c r="C39" s="188">
+        <v>G29 W I5 J6 Z-2.12171  ; X37 Y55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A50" s="188" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="195">
+        <v>6</v>
+      </c>
+      <c r="C50" s="195">
+        <v>6</v>
+      </c>
+      <c r="D50" s="195">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="E50" s="195">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="F50" s="195">
+        <f t="shared" si="12"/>
+        <v>-2.5977600000000001</v>
+      </c>
+      <c r="G50" s="195">
+        <f t="shared" si="13"/>
+        <v>-0.46703000000000028</v>
+      </c>
+      <c r="H50" s="196">
+        <f>T14</f>
+        <v>0.50503916666666671</v>
+      </c>
+      <c r="Z50" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="D39" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12637000000000001</v>
-      </c>
-      <c r="E39" s="188">
-        <f t="shared" si="7"/>
-        <v>1.1899999999999966E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A40" s="188" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="188">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="188">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="D40" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12325</v>
-      </c>
-      <c r="E40" s="188">
-        <f t="shared" si="7"/>
-        <v>-1.930000000000015E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A41" s="188" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41" s="188">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="C41" s="188">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="D41" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12013</v>
-      </c>
-      <c r="E41" s="188">
-        <f t="shared" si="7"/>
-        <v>-5.0500000000000128E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A42" s="188" t="s">
-        <v>270</v>
-      </c>
-      <c r="B42" s="188">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="C42" s="188">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="D42" s="188">
-        <f t="shared" si="6"/>
-        <v>0.11685</v>
-      </c>
-      <c r="E42" s="188">
-        <f t="shared" si="7"/>
-        <v>-8.3300000000000179E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A43" s="188" t="s">
-        <v>271</v>
-      </c>
-      <c r="B43" s="188">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="C43" s="188">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="D43" s="188">
-        <f t="shared" si="6"/>
-        <v>0.11373</v>
-      </c>
-      <c r="E43" s="188">
-        <f t="shared" si="7"/>
-        <v>-1.1450000000000016E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A44" s="188" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="188">
-        <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
-      <c r="C44" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D44" s="188">
-        <f t="shared" si="6"/>
-        <v>0.13183</v>
-      </c>
-      <c r="E44" s="188">
-        <f t="shared" si="7"/>
-        <v>6.6499999999999893E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A45" s="188" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" s="188">
-        <f t="shared" si="4"/>
-        <v>-37</v>
-      </c>
-      <c r="C45" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D45" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12872</v>
-      </c>
-      <c r="E45" s="188">
-        <f t="shared" si="7"/>
-        <v>3.5399999999999876E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A46" s="188" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="188">
-        <f t="shared" si="4"/>
-        <v>-18</v>
-      </c>
-      <c r="C46" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D46" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12543000000000001</v>
-      </c>
-      <c r="E46" s="188">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000022E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A47" s="188" t="s">
-        <v>275</v>
-      </c>
-      <c r="B47" s="188">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D47" s="188">
-        <f t="shared" si="6"/>
-        <v>0.12231</v>
-      </c>
-      <c r="E47" s="188">
-        <f t="shared" si="7"/>
-        <v>-2.8700000000000114E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A48" s="188" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" s="188">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="C48" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D48" s="188">
-        <f t="shared" si="6"/>
-        <v>0.1192</v>
-      </c>
-      <c r="E48" s="188">
-        <f t="shared" si="7"/>
-        <v>-5.9800000000000131E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A49" s="188" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" s="188">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="C49" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D49" s="188">
-        <f t="shared" si="6"/>
-        <v>0.11591</v>
-      </c>
-      <c r="E49" s="188">
-        <f t="shared" si="7"/>
-        <v>-9.2700000000000143E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A50" s="188" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="188">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="C50" s="188">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D50" s="188">
-        <f t="shared" si="6"/>
-        <v>0.11279</v>
-      </c>
-      <c r="E50" s="188">
-        <f t="shared" si="7"/>
-        <v>-1.2390000000000012E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30.75" customHeight="1"/>
-    <row r="52" spans="1:5" ht="30.75" customHeight="1"/>
+        <v>G29 W I6 J6 Z-2.09272  ; X55 Y55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="30.75" customHeight="1"/>
+    <row r="52" spans="1:26" ht="30.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="K6:Q6 L4:P5 L7:P8 N9">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="N6:T6 O4:S5 O7:S8 Q9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="-0.4"/>
         <cfvo type="num" val="0"/>
@@ -17266,8 +18546,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-0.4"/>
         <cfvo type="num" val="0"/>
